--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -647,6 +647,230 @@
             <v>50</v>
           </cell>
         </row>
+        <row r="52">
+          <cell r="A52">
+            <v>51</v>
+          </cell>
+          <cell r="B52">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>52</v>
+          </cell>
+          <cell r="B53">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>53</v>
+          </cell>
+          <cell r="B54">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>54</v>
+          </cell>
+          <cell r="B55">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>55</v>
+          </cell>
+          <cell r="B56">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>56</v>
+          </cell>
+          <cell r="B57">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>57</v>
+          </cell>
+          <cell r="B58">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>58</v>
+          </cell>
+          <cell r="B59">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>59</v>
+          </cell>
+          <cell r="B60">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>60</v>
+          </cell>
+          <cell r="B61">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>61</v>
+          </cell>
+          <cell r="B62">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>62</v>
+          </cell>
+          <cell r="B63">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>63</v>
+          </cell>
+          <cell r="B64">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>64</v>
+          </cell>
+          <cell r="B65">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>65</v>
+          </cell>
+          <cell r="B66">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>66</v>
+          </cell>
+          <cell r="B67">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>67</v>
+          </cell>
+          <cell r="B68">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>68</v>
+          </cell>
+          <cell r="B69">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>69</v>
+          </cell>
+          <cell r="B70">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>70</v>
+          </cell>
+          <cell r="B71">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>71</v>
+          </cell>
+          <cell r="B72">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>72</v>
+          </cell>
+          <cell r="B73">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>73</v>
+          </cell>
+          <cell r="B74">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>74</v>
+          </cell>
+          <cell r="B75">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>75</v>
+          </cell>
+          <cell r="B76">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>76</v>
+          </cell>
+          <cell r="B77">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>77</v>
+          </cell>
+          <cell r="B78">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>78</v>
+          </cell>
+          <cell r="B79">
+            <v>27</v>
+          </cell>
+        </row>
       </sheetData>
       <sheetData sheetId="7">
         <row r="1">
@@ -842,22 +1066,32 @@
           <cell r="C38"/>
         </row>
         <row r="39">
-          <cell r="C39"/>
+          <cell r="C39">
+            <v>26</v>
+          </cell>
         </row>
         <row r="40">
-          <cell r="C40"/>
+          <cell r="C40">
+            <v>25</v>
+          </cell>
         </row>
         <row r="41">
-          <cell r="C41"/>
+          <cell r="C41">
+            <v>41</v>
+          </cell>
         </row>
         <row r="42">
-          <cell r="C42"/>
+          <cell r="C42">
+            <v>27</v>
+          </cell>
         </row>
         <row r="43">
           <cell r="C43"/>
         </row>
         <row r="44">
-          <cell r="C44"/>
+          <cell r="C44">
+            <v>40</v>
+          </cell>
         </row>
         <row r="45">
           <cell r="C45"/>
@@ -885,6 +1119,146 @@
         </row>
         <row r="51">
           <cell r="C51"/>
+        </row>
+        <row r="52">
+          <cell r="C52">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="C53">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="C54">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="C55">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="C56">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="C57">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="C58">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="C59">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="C60">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="C61">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="C62">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="C63">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="C64">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="C65">
+            <v>42</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="C66">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="C67">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="C68">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="C69">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="C70">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="C71">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="C72">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="C73">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="C74">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="C75">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="C76">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="C77">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="C78">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="C79">
+            <v>43</v>
+          </cell>
         </row>
       </sheetData>
       <sheetData sheetId="7">
@@ -1325,6 +1699,50 @@
             <v>39</v>
           </cell>
           <cell r="D40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>40</v>
+          </cell>
+          <cell r="B41">
+            <v>21</v>
+          </cell>
+          <cell r="D41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>41</v>
+          </cell>
+          <cell r="B42">
+            <v>21</v>
+          </cell>
+          <cell r="D42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>42</v>
+          </cell>
+          <cell r="B43">
+            <v>4</v>
+          </cell>
+          <cell r="D43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43</v>
+          </cell>
+          <cell r="B44">
+            <v>5</v>
+          </cell>
+          <cell r="D44">
             <v>0</v>
           </cell>
         </row>
@@ -1608,10 +2026,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="R62" sqref="R62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1641,9 +2059,9 @@
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C2),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1655,9 +2073,9 @@
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
+      <c r="C3" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C3),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1669,9 +2087,9 @@
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
+      <c r="C4" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C4),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1683,9 +2101,9 @@
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
+      <c r="C5" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C5),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1697,9 +2115,9 @@
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="str">
+      <c r="C6" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C6),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1711,9 +2129,9 @@
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
+      <c r="C7" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C7),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1725,9 +2143,9 @@
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="str">
+      <c r="C8" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C8),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -1739,9 +2157,9 @@
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="str">
+      <c r="C9" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C9),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -1753,9 +2171,9 @@
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="str">
+      <c r="C10" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C10),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
@@ -1767,9 +2185,9 @@
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="str">
+      <c r="C11" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C11),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -1781,9 +2199,9 @@
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="str">
+      <c r="C12" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C12),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -1795,9 +2213,9 @@
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="str">
+      <c r="C13" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C13),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1809,9 +2227,9 @@
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="str">
+      <c r="C14" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C14),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
@@ -1823,9 +2241,9 @@
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="str">
+      <c r="C15" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C15),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
@@ -1837,9 +2255,9 @@
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="str">
+      <c r="C16" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C16),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
@@ -1851,9 +2269,9 @@
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="str">
+      <c r="C17" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C17),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
@@ -1865,9 +2283,9 @@
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
+      <c r="C18" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C18),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
@@ -1879,9 +2297,9 @@
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
+      <c r="C19" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C19),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -1907,9 +2325,9 @@
         <f>[1]use_fish!$B21</f>
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="str">
+      <c r="C21" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C21),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
@@ -1935,9 +2353,9 @@
         <f>[1]use_fish!$B23</f>
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="str">
+      <c r="C23" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C23),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -1949,9 +2367,9 @@
         <f>[1]use_fish!$B24</f>
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="str">
+      <c r="C24" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C24),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -1963,9 +2381,9 @@
         <f>[1]use_fish!$B25</f>
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="str">
+      <c r="C25" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C25),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
@@ -1977,9 +2395,9 @@
         <f>[1]use_fish!$B26</f>
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="str">
+      <c r="C26" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C26),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
@@ -1991,9 +2409,9 @@
         <f>[1]use_fish!$B27</f>
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="str">
+      <c r="C27" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C27),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
@@ -2005,9 +2423,9 @@
         <f>[1]use_fish!$B28</f>
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="str">
+      <c r="C28" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C28),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
@@ -2145,9 +2563,9 @@
         <f>[1]use_fish!$B38</f>
         <v>37</v>
       </c>
-      <c r="C38" s="1" t="str">
+      <c r="C38" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C38),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
@@ -2159,9 +2577,9 @@
         <f>[1]use_fish!$B39</f>
         <v>38</v>
       </c>
-      <c r="C39" s="1" t="str">
+      <c r="C39" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C39),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2173,9 +2591,9 @@
         <f>[1]use_fish!$B40</f>
         <v>39</v>
       </c>
-      <c r="C40" s="1" t="str">
+      <c r="C40" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C40),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
@@ -2187,9 +2605,9 @@
         <f>[1]use_fish!$B41</f>
         <v>40</v>
       </c>
-      <c r="C41" s="1" t="str">
+      <c r="C41" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C41),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
@@ -2201,9 +2619,9 @@
         <f>[1]use_fish!$B42</f>
         <v>41</v>
       </c>
-      <c r="C42" s="1" t="str">
+      <c r="C42" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C42),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
@@ -2215,9 +2633,9 @@
         <f>[1]use_fish!$B43</f>
         <v>42</v>
       </c>
-      <c r="C43" s="1" t="str">
+      <c r="C43" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C43),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2229,9 +2647,9 @@
         <f>[1]use_fish!$B44</f>
         <v>43</v>
       </c>
-      <c r="C44" s="1" t="str">
+      <c r="C44" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C44),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2243,9 +2661,9 @@
         <f>[1]use_fish!$B45</f>
         <v>44</v>
       </c>
-      <c r="C45" s="1" t="str">
+      <c r="C45" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C45),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2257,9 +2675,9 @@
         <f>[1]use_fish!$B46</f>
         <v>45</v>
       </c>
-      <c r="C46" s="1" t="str">
+      <c r="C46" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C46),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,9 +2689,9 @@
         <f>[1]use_fish!$B47</f>
         <v>46</v>
       </c>
-      <c r="C47" s="1" t="str">
+      <c r="C47" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C47),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2327,49 +2745,402 @@
         <f>[1]use_fish!$B51</f>
         <v>50</v>
       </c>
-      <c r="C51" s="1" t="str">
+      <c r="C51" s="1" t="e">
         <f>IF(ISBLANK([2]use_fish!$C51),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
+      <c r="A52" s="3">
+        <f>[1]use_fish!$A52</f>
+        <v>51</v>
+      </c>
+      <c r="B52" s="3">
+        <f>[1]use_fish!$B52</f>
+        <v>11</v>
+      </c>
+      <c r="C52" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C52),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
+      <c r="A53" s="3">
+        <f>[1]use_fish!$A53</f>
+        <v>52</v>
+      </c>
+      <c r="B53" s="3">
+        <f>[1]use_fish!$B53</f>
+        <v>12</v>
+      </c>
+      <c r="C53" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C53),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
+      <c r="A54" s="3">
+        <f>[1]use_fish!$A54</f>
+        <v>53</v>
+      </c>
+      <c r="B54" s="3">
+        <f>[1]use_fish!$B54</f>
+        <v>13</v>
+      </c>
+      <c r="C54" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C54),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
+      <c r="A55" s="3">
+        <f>[1]use_fish!$A55</f>
+        <v>54</v>
+      </c>
+      <c r="B55" s="3">
+        <f>[1]use_fish!$B55</f>
+        <v>14</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C55),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
+      <c r="A56" s="3">
+        <f>[1]use_fish!$A56</f>
+        <v>55</v>
+      </c>
+      <c r="B56" s="3">
+        <f>[1]use_fish!$B56</f>
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C56),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
+      <c r="A57" s="3">
+        <f>[1]use_fish!$A57</f>
+        <v>56</v>
+      </c>
+      <c r="B57" s="3">
+        <f>[1]use_fish!$B57</f>
+        <v>16</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C57),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
+      <c r="A58" s="3">
+        <f>[1]use_fish!$A58</f>
+        <v>57</v>
+      </c>
+      <c r="B58" s="3">
+        <f>[1]use_fish!$B58</f>
+        <v>17</v>
+      </c>
+      <c r="C58" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C58),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
+      <c r="A59" s="3">
+        <f>[1]use_fish!$A59</f>
+        <v>58</v>
+      </c>
+      <c r="B59" s="3">
+        <f>[1]use_fish!$B59</f>
+        <v>18</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C59),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
+      <c r="A60" s="3">
+        <f>[1]use_fish!$A60</f>
+        <v>59</v>
+      </c>
+      <c r="B60" s="3">
+        <f>[1]use_fish!$B60</f>
+        <v>20</v>
+      </c>
+      <c r="C60" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C60),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
+      <c r="A61" s="3">
+        <f>[1]use_fish!$A61</f>
+        <v>60</v>
+      </c>
+      <c r="B61" s="3">
+        <f>[1]use_fish!$B61</f>
+        <v>22</v>
+      </c>
+      <c r="C61" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C61),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
+      <c r="A62" s="3">
+        <f>[1]use_fish!$A62</f>
+        <v>61</v>
+      </c>
+      <c r="B62" s="3">
+        <f>[1]use_fish!$B62</f>
+        <v>23</v>
+      </c>
+      <c r="C62" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C62),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
+      <c r="A63" s="3">
+        <f>[1]use_fish!$A63</f>
+        <v>62</v>
+      </c>
+      <c r="B63" s="3">
+        <f>[1]use_fish!$B63</f>
+        <v>25</v>
+      </c>
+      <c r="C63" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C63),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
+      <c r="A64" s="3">
+        <f>[1]use_fish!$A64</f>
+        <v>63</v>
+      </c>
+      <c r="B64" s="3">
+        <f>[1]use_fish!$B64</f>
+        <v>26</v>
+      </c>
+      <c r="C64" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C64),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
+        <f>[1]use_fish!$A65</f>
+        <v>64</v>
+      </c>
+      <c r="B65" s="3">
+        <f>[1]use_fish!$B65</f>
+        <v>27</v>
+      </c>
+      <c r="C65" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C65),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
+        <f>[1]use_fish!$A66</f>
+        <v>65</v>
+      </c>
+      <c r="B66" s="3">
+        <f>[1]use_fish!$B66</f>
+        <v>11</v>
+      </c>
+      <c r="C66" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C66),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
+        <f>[1]use_fish!$A67</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="3">
+        <f>[1]use_fish!$B67</f>
+        <v>12</v>
+      </c>
+      <c r="C67" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C67),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
+        <f>[1]use_fish!$A68</f>
+        <v>67</v>
+      </c>
+      <c r="B68" s="3">
+        <f>[1]use_fish!$B68</f>
+        <v>13</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C68),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
+        <f>[1]use_fish!$A69</f>
+        <v>68</v>
+      </c>
+      <c r="B69" s="3">
+        <f>[1]use_fish!$B69</f>
+        <v>14</v>
+      </c>
+      <c r="C69" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C69),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
+        <f>[1]use_fish!$A70</f>
+        <v>69</v>
+      </c>
+      <c r="B70" s="3">
+        <f>[1]use_fish!$B70</f>
+        <v>15</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C70),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
+        <f>[1]use_fish!$A71</f>
+        <v>70</v>
+      </c>
+      <c r="B71" s="3">
+        <f>[1]use_fish!$B71</f>
+        <v>16</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C71),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <f>[1]use_fish!$A72</f>
+        <v>71</v>
+      </c>
+      <c r="B72" s="3">
+        <f>[1]use_fish!$B72</f>
+        <v>17</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C72),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <f>[1]use_fish!$A73</f>
+        <v>72</v>
+      </c>
+      <c r="B73" s="3">
+        <f>[1]use_fish!$B73</f>
+        <v>18</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C73),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <f>[1]use_fish!$A74</f>
+        <v>73</v>
+      </c>
+      <c r="B74" s="3">
+        <f>[1]use_fish!$B74</f>
+        <v>20</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C74),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <f>[1]use_fish!$A75</f>
+        <v>74</v>
+      </c>
+      <c r="B75" s="3">
+        <f>[1]use_fish!$B75</f>
+        <v>22</v>
+      </c>
+      <c r="C75" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C75),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <f>[1]use_fish!$A76</f>
+        <v>75</v>
+      </c>
+      <c r="B76" s="3">
+        <f>[1]use_fish!$B76</f>
+        <v>23</v>
+      </c>
+      <c r="C76" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C76),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
+        <f>[1]use_fish!$A77</f>
+        <v>76</v>
+      </c>
+      <c r="B77" s="3">
+        <f>[1]use_fish!$B77</f>
+        <v>25</v>
+      </c>
+      <c r="C77" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C77),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
+        <f>[1]use_fish!$A78</f>
+        <v>77</v>
+      </c>
+      <c r="B78" s="3">
+        <f>[1]use_fish!$B78</f>
+        <v>26</v>
+      </c>
+      <c r="C78" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C78),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
+        <f>[1]use_fish!$A79</f>
+        <v>78</v>
+      </c>
+      <c r="B79" s="3">
+        <f>[1]use_fish!$B79</f>
+        <v>27</v>
+      </c>
+      <c r="C79" s="1" t="str">
+        <f>IF(ISBLANK([2]use_fish!$C79),"",IF(INDEX([2]activity!$D:$D,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))=0,"",INDEX([2]activity!$B:$B,MATCH([2]use_fish!$C:$C,[2]activity!$A:$A,0))))</f>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
   </externalReferences>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,40 +208,35 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="profit"/>
-      <sheetName val="random_wave"/>
-      <sheetName val="wave"/>
-      <sheetName val="image_type_cfg"/>
-      <sheetName val="image_cfg"/>
       <sheetName val="group"/>
       <sheetName val="use_fish"/>
       <sheetName val="activity"/>
       <sheetName val="box_fish_activity"/>
       <sheetName val="base_fish"/>
       <sheetName val="path"/>
-      <sheetName val="laser"/>
-      <sheetName val="gun"/>
       <sheetName val="skill"/>
       <sheetName val="dead_mode"/>
       <sheetName val="box_fish_award"/>
+      <sheetName val="summon_fish"/>
+      <sheetName val="profit"/>
+      <sheetName val="random_wave"/>
+      <sheetName val="wave"/>
+      <sheetName val="image_type_cfg"/>
+      <sheetName val="image_cfg"/>
+      <sheetName val="laser"/>
+      <sheetName val="gun"/>
       <sheetName val="match_award"/>
       <sheetName val="ue_event_map"/>
-      <sheetName val="summon_fish"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5">
+      <sheetData sheetId="0">
         <row r="2">
           <cell r="L2" t="str">
             <v>海龟</v>
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6">
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>id|在group使用的鱼ID</v>
@@ -871,25 +866,64 @@
             <v>27</v>
           </cell>
         </row>
+        <row r="80">
+          <cell r="A80">
+            <v>79</v>
+          </cell>
+          <cell r="B80">
+            <v>51</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>80</v>
+          </cell>
+          <cell r="B81">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>81</v>
+          </cell>
+          <cell r="B82">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>82</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>83</v>
+          </cell>
+        </row>
       </sheetData>
-      <sheetData sheetId="7">
+      <sheetData sheetId="2">
         <row r="1">
           <cell r="A1" t="str">
             <v>id|编号</v>
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
       <sheetData sheetId="8"/>
       <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
-      <sheetData sheetId="18"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
+      <sheetData sheetId="18" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -933,58 +967,94 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="C2"/>
+          <cell r="C2">
+            <v>0</v>
+          </cell>
         </row>
         <row r="3">
-          <cell r="C3"/>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
         </row>
         <row r="4">
-          <cell r="C4"/>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
         </row>
         <row r="5">
-          <cell r="C5"/>
+          <cell r="C5">
+            <v>0</v>
+          </cell>
         </row>
         <row r="6">
-          <cell r="C6"/>
+          <cell r="C6">
+            <v>0</v>
+          </cell>
         </row>
         <row r="7">
-          <cell r="C7"/>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
         </row>
         <row r="8">
-          <cell r="C8"/>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
         </row>
         <row r="9">
-          <cell r="C9"/>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
         </row>
         <row r="10">
-          <cell r="C10"/>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
         </row>
         <row r="11">
-          <cell r="C11"/>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
         </row>
         <row r="12">
-          <cell r="C12"/>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
         </row>
         <row r="13">
-          <cell r="C13"/>
+          <cell r="C13">
+            <v>0</v>
+          </cell>
         </row>
         <row r="14">
-          <cell r="C14"/>
+          <cell r="C14">
+            <v>0</v>
+          </cell>
         </row>
         <row r="15">
-          <cell r="C15"/>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
         </row>
         <row r="16">
-          <cell r="C16"/>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
         </row>
         <row r="17">
-          <cell r="C17"/>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
         </row>
         <row r="18">
-          <cell r="C18"/>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
         </row>
         <row r="19">
-          <cell r="C19"/>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
         </row>
         <row r="20">
           <cell r="C20">
@@ -992,7 +1062,9 @@
           </cell>
         </row>
         <row r="21">
-          <cell r="C21"/>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
         </row>
         <row r="22">
           <cell r="C22">
@@ -1000,22 +1072,34 @@
           </cell>
         </row>
         <row r="23">
-          <cell r="C23"/>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
         </row>
         <row r="24">
-          <cell r="C24"/>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
         </row>
         <row r="25">
-          <cell r="C25"/>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
         </row>
         <row r="26">
-          <cell r="C26"/>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
         </row>
         <row r="27">
-          <cell r="C27"/>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
         </row>
         <row r="28">
-          <cell r="C28"/>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
         </row>
         <row r="29">
           <cell r="C29">
@@ -1063,7 +1147,9 @@
           </cell>
         </row>
         <row r="38">
-          <cell r="C38"/>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
         </row>
         <row r="39">
           <cell r="C39">
@@ -1086,7 +1172,9 @@
           </cell>
         </row>
         <row r="43">
-          <cell r="C43"/>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
         </row>
         <row r="44">
           <cell r="C44">
@@ -1094,13 +1182,19 @@
           </cell>
         </row>
         <row r="45">
-          <cell r="C45"/>
+          <cell r="C45">
+            <v>0</v>
+          </cell>
         </row>
         <row r="46">
-          <cell r="C46"/>
+          <cell r="C46">
+            <v>0</v>
+          </cell>
         </row>
         <row r="47">
-          <cell r="C47"/>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
         </row>
         <row r="48">
           <cell r="C48">
@@ -1118,7 +1212,9 @@
           </cell>
         </row>
         <row r="51">
-          <cell r="C51"/>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
         </row>
         <row r="52">
           <cell r="C52">
@@ -2026,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="R62" sqref="R62"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="F87" sqref="F87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3142,6 +3238,66 @@
         <v/>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
+        <f>[1]use_fish!$A80</f>
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <f>[1]use_fish!$B80</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
+        <f>[1]use_fish!$A81</f>
+        <v>80</v>
+      </c>
+      <c r="B81" s="3">
+        <f>[1]use_fish!$B81</f>
+        <v>18</v>
+      </c>
+      <c r="C81" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
+        <f>[1]use_fish!$A82</f>
+        <v>81</v>
+      </c>
+      <c r="B82" s="3">
+        <f>[1]use_fish!$B82</f>
+        <v>17</v>
+      </c>
+      <c r="C82" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
+        <f>[1]use_fish!$A83</f>
+        <v>82</v>
+      </c>
+      <c r="B83" s="3">
+        <v>15</v>
+      </c>
+      <c r="C83" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
+        <f>[1]use_fish!$A84</f>
+        <v>83</v>
+      </c>
+      <c r="B84" s="3">
+        <v>13</v>
+      </c>
+      <c r="C84" s="1">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -894,10 +894,72 @@
           <cell r="A83">
             <v>82</v>
           </cell>
+          <cell r="B83">
+            <v>15</v>
+          </cell>
         </row>
         <row r="84">
           <cell r="A84">
             <v>83</v>
+          </cell>
+          <cell r="B84">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>84</v>
+          </cell>
+          <cell r="B85">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>85</v>
+          </cell>
+          <cell r="B86">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>86</v>
+          </cell>
+          <cell r="B87">
+            <v>52</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>87</v>
+          </cell>
+          <cell r="B88">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>88</v>
+          </cell>
+          <cell r="B89">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>89</v>
+          </cell>
+          <cell r="B90">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>90</v>
+          </cell>
+          <cell r="B91">
+            <v>13</v>
           </cell>
         </row>
       </sheetData>
@@ -2122,10 +2184,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3280,6 +3342,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3">
+        <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
       <c r="C83" s="1">
@@ -3292,9 +3355,92 @@
         <v>83</v>
       </c>
       <c r="B84" s="3">
+        <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
       <c r="C84" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
+        <f>[1]use_fish!$A85</f>
+        <v>84</v>
+      </c>
+      <c r="B85" s="3">
+        <f>[1]use_fish!$B85</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
+        <f>[1]use_fish!$A86</f>
+        <v>85</v>
+      </c>
+      <c r="B86" s="3">
+        <f>[1]use_fish!$B86</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
+        <f>[1]use_fish!$A87</f>
+        <v>86</v>
+      </c>
+      <c r="B87" s="3">
+        <f>[1]use_fish!$B87</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
+        <f>[1]use_fish!$A88</f>
+        <v>87</v>
+      </c>
+      <c r="B88" s="3">
+        <f>[1]use_fish!$B88</f>
+        <v>18</v>
+      </c>
+      <c r="C88" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
+        <f>[1]use_fish!$A89</f>
+        <v>88</v>
+      </c>
+      <c r="B89" s="3">
+        <f>[1]use_fish!$B89</f>
+        <v>17</v>
+      </c>
+      <c r="C89" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
+        <f>[1]use_fish!$A90</f>
+        <v>89</v>
+      </c>
+      <c r="B90" s="3">
+        <f>[1]use_fish!$B90</f>
+        <v>15</v>
+      </c>
+      <c r="C90" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
+        <f>[1]use_fish!$A91</f>
+        <v>90</v>
+      </c>
+      <c r="B91" s="3">
+        <f>[1]use_fish!$B91</f>
+        <v>13</v>
+      </c>
+      <c r="C91" s="1">
         <v>9</v>
       </c>
     </row>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -69,6 +69,17 @@
   </si>
   <si>
     <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cond_key|权限</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
+  </si>
+  <si>
+    <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -669,6 +680,56 @@
         <row r="91">
           <cell r="B91">
             <v>56</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="B92">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="B93">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="B94">
+            <v>57</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="B95">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="B96">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="B97">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="B98">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="B99">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="B100">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="B101">
+            <v>17</v>
           </cell>
         </row>
       </sheetData>
@@ -948,20 +1009,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C80"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -971,8 +1033,11 @@
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -981,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -990,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -999,7 +1064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1008,7 +1073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1017,7 +1082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1026,7 +1091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1035,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1044,7 +1109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -1053,7 +1118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -1062,7 +1127,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -1071,7 +1136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -1080,7 +1145,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -1089,7 +1154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1098,7 +1163,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -1683,7 +1748,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -1695,7 +1760,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -1707,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -1719,7 +1784,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -1731,7 +1796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -1740,7 +1805,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -1749,7 +1814,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -1758,7 +1823,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -1770,7 +1835,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -1782,7 +1847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -1794,7 +1859,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -1804,6 +1869,147 @@
       </c>
       <c r="C91" s="1">
         <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
+        <v>91</v>
+      </c>
+      <c r="B92" s="3">
+        <f>[1]use_fish!$B92</f>
+        <v>57</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
+        <v>92</v>
+      </c>
+      <c r="B93" s="3">
+        <f>[1]use_fish!$B93</f>
+        <v>57</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
+        <v>93</v>
+      </c>
+      <c r="B94" s="3">
+        <f>[1]use_fish!$B94</f>
+        <v>57</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
+        <v>94</v>
+      </c>
+      <c r="B95" s="3">
+        <f>[1]use_fish!$B95</f>
+        <v>11</v>
+      </c>
+      <c r="C95" s="1">
+        <v>9</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
+        <v>95</v>
+      </c>
+      <c r="B96" s="3">
+        <f>[1]use_fish!$B96</f>
+        <v>12</v>
+      </c>
+      <c r="C96" s="1">
+        <v>9</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
+        <v>96</v>
+      </c>
+      <c r="B97" s="3">
+        <f>[1]use_fish!$B97</f>
+        <v>13</v>
+      </c>
+      <c r="C97" s="1">
+        <v>9</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
+        <v>97</v>
+      </c>
+      <c r="B98" s="3">
+        <f>[1]use_fish!$B98</f>
+        <v>14</v>
+      </c>
+      <c r="C98" s="1">
+        <v>9</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
+        <v>98</v>
+      </c>
+      <c r="B99" s="3">
+        <f>[1]use_fish!$B99</f>
+        <v>15</v>
+      </c>
+      <c r="C99" s="1">
+        <v>9</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
+        <v>99</v>
+      </c>
+      <c r="B100" s="3">
+        <f>[1]use_fish!$B100</f>
+        <v>16</v>
+      </c>
+      <c r="C100" s="1">
+        <v>9</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
+        <f>[1]use_fish!$B101</f>
+        <v>17</v>
+      </c>
+      <c r="C101" s="1">
+        <v>9</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -190,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -204,8 +210,14 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1021,16 +1033,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D110"/>
+  <dimension ref="A1:D112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H116" sqref="H116"/>
+      <selection activeCell="J105" sqref="J105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="9" style="7"/>
+    <col min="3" max="3" width="11.5" style="7" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1768,7 +1781,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="1">
+      <c r="C81" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1780,7 +1793,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="1">
+      <c r="C82" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1792,7 +1805,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="1">
+      <c r="C83" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1804,7 +1817,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="1">
+      <c r="C84" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1843,7 +1856,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="1">
+      <c r="C88" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1855,7 +1868,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="1">
+      <c r="C89" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1867,7 +1880,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="1">
+      <c r="C90" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1879,7 +1892,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="1">
+      <c r="C91" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1927,7 +1940,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="1">
+      <c r="C95" s="7">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1942,7 +1955,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="1">
+      <c r="C96" s="7">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1957,7 +1970,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="1">
+      <c r="C97" s="7">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1972,7 +1985,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="1">
+      <c r="C98" s="7">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -1987,7 +2000,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="1">
+      <c r="C99" s="7">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2002,7 +2015,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="1">
+      <c r="C100" s="7">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2017,7 +2030,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="1">
+      <c r="C101" s="7">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2031,7 +2044,7 @@
       <c r="B102" s="4">
         <v>13</v>
       </c>
-      <c r="C102" s="5">
+      <c r="C102" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2042,7 +2055,7 @@
       <c r="B103" s="4">
         <v>14</v>
       </c>
-      <c r="C103" s="5">
+      <c r="C103" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2053,7 +2066,7 @@
       <c r="B104" s="4">
         <v>15</v>
       </c>
-      <c r="C104" s="5">
+      <c r="C104" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2064,7 +2077,7 @@
       <c r="B105" s="4">
         <v>16</v>
       </c>
-      <c r="C105" s="5">
+      <c r="C105" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2075,7 +2088,7 @@
       <c r="B106" s="4">
         <v>17</v>
       </c>
-      <c r="C106" s="5">
+      <c r="C106" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2086,7 +2099,7 @@
       <c r="B107" s="4">
         <v>18</v>
       </c>
-      <c r="C107" s="5">
+      <c r="C107" s="4">
         <v>9</v>
       </c>
     </row>
@@ -2097,7 +2110,7 @@
       <c r="B108" s="4">
         <v>58</v>
       </c>
-      <c r="C108" s="5"/>
+      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
@@ -2106,7 +2119,7 @@
       <c r="B109" s="4">
         <v>58</v>
       </c>
-      <c r="C109" s="5"/>
+      <c r="C109" s="4"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
@@ -2115,7 +2128,23 @@
       <c r="B110" s="4">
         <v>58</v>
       </c>
-      <c r="C110" s="5"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="5">
+        <v>110</v>
+      </c>
+      <c r="B111" s="6">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="5">
+        <v>111</v>
+      </c>
+      <c r="B112" s="6">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +150,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -184,7 +190,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -194,6 +200,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1009,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+      <selection activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1023,7 +1035,7 @@
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2011,6 +2023,99 @@
       <c r="D101" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
+        <v>101</v>
+      </c>
+      <c r="B102" s="4">
+        <v>13</v>
+      </c>
+      <c r="C102" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
+        <v>102</v>
+      </c>
+      <c r="B103" s="4">
+        <v>14</v>
+      </c>
+      <c r="C103" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
+        <v>103</v>
+      </c>
+      <c r="B104" s="4">
+        <v>15</v>
+      </c>
+      <c r="C104" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
+        <v>104</v>
+      </c>
+      <c r="B105" s="4">
+        <v>16</v>
+      </c>
+      <c r="C105" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
+        <v>105</v>
+      </c>
+      <c r="B106" s="4">
+        <v>17</v>
+      </c>
+      <c r="C106" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
+        <v>106</v>
+      </c>
+      <c r="B107" s="4">
+        <v>18</v>
+      </c>
+      <c r="C107" s="5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
+        <v>107</v>
+      </c>
+      <c r="B108" s="4">
+        <v>58</v>
+      </c>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>58</v>
+      </c>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
+        <v>109</v>
+      </c>
+      <c r="B110" s="4">
+        <v>58</v>
+      </c>
+      <c r="C110" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -154,13 +154,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -207,16 +207,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,17 +1039,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D112"/>
+  <dimension ref="A1:D121"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J105" sqref="J105"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="7"/>
-    <col min="3" max="3" width="11.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="9" style="6"/>
+    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1781,7 +1787,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="7">
+      <c r="C81" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1793,7 +1799,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="7">
+      <c r="C82" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1805,7 +1811,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="7">
+      <c r="C83" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1817,7 +1823,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="7">
+      <c r="C84" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1856,7 +1862,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="7">
+      <c r="C88" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1868,7 +1874,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="7">
+      <c r="C89" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1880,7 +1886,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="7">
+      <c r="C90" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1892,7 +1898,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="7">
+      <c r="C91" s="6">
         <v>9</v>
       </c>
     </row>
@@ -1940,7 +1946,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="7">
+      <c r="C95" s="6">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1955,7 +1961,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="7">
+      <c r="C96" s="6">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1970,7 +1976,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="7">
+      <c r="C97" s="6">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1985,7 +1991,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="7">
+      <c r="C98" s="6">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2000,7 +2006,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="7">
+      <c r="C99" s="6">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2015,7 +2021,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="7">
+      <c r="C100" s="6">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2030,7 +2036,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="7">
+      <c r="C101" s="6">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2038,113 +2044,206 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+      <c r="A102" s="8">
         <v>101</v>
       </c>
-      <c r="B102" s="4">
+      <c r="B102" s="7">
         <v>13</v>
       </c>
-      <c r="C102" s="4">
+      <c r="C102" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+      <c r="A103" s="8">
         <v>102</v>
       </c>
-      <c r="B103" s="4">
+      <c r="B103" s="7">
         <v>14</v>
       </c>
-      <c r="C103" s="4">
+      <c r="C103" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+      <c r="A104" s="8">
         <v>103</v>
       </c>
-      <c r="B104" s="4">
+      <c r="B104" s="7">
         <v>15</v>
       </c>
-      <c r="C104" s="4">
+      <c r="C104" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+      <c r="A105" s="8">
         <v>104</v>
       </c>
-      <c r="B105" s="4">
+      <c r="B105" s="7">
         <v>16</v>
       </c>
-      <c r="C105" s="4">
+      <c r="C105" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+      <c r="A106" s="8">
         <v>105</v>
       </c>
-      <c r="B106" s="4">
+      <c r="B106" s="7">
         <v>17</v>
       </c>
-      <c r="C106" s="4">
+      <c r="C106" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+      <c r="A107" s="8">
         <v>106</v>
       </c>
-      <c r="B107" s="4">
+      <c r="B107" s="7">
         <v>18</v>
       </c>
-      <c r="C107" s="4">
+      <c r="C107" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+      <c r="A108" s="8">
         <v>107</v>
       </c>
-      <c r="B108" s="4">
+      <c r="B108" s="8">
         <v>58</v>
       </c>
-      <c r="C108" s="4"/>
+      <c r="C108" s="9"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+      <c r="A109" s="8">
         <v>108</v>
       </c>
-      <c r="B109" s="4">
+      <c r="B109" s="8">
         <v>58</v>
       </c>
-      <c r="C109" s="4"/>
+      <c r="C109" s="9"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+      <c r="A110" s="8">
         <v>109</v>
       </c>
-      <c r="B110" s="4">
+      <c r="B110" s="8">
         <v>58</v>
       </c>
-      <c r="C110" s="4"/>
+      <c r="C110" s="9"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="5">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="5">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>59</v>
       </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="8">
+        <v>112</v>
+      </c>
+      <c r="B113" s="7">
+        <v>13</v>
+      </c>
+      <c r="C113" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="8">
+        <v>113</v>
+      </c>
+      <c r="B114" s="7">
+        <v>14</v>
+      </c>
+      <c r="C114" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="8">
+        <v>114</v>
+      </c>
+      <c r="B115" s="7">
+        <v>15</v>
+      </c>
+      <c r="C115" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="8">
+        <v>115</v>
+      </c>
+      <c r="B116" s="7">
+        <v>16</v>
+      </c>
+      <c r="C116" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="8">
+        <v>116</v>
+      </c>
+      <c r="B117" s="7">
+        <v>17</v>
+      </c>
+      <c r="C117" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="8">
+        <v>117</v>
+      </c>
+      <c r="B118" s="7">
+        <v>18</v>
+      </c>
+      <c r="C118" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="8">
+        <v>118</v>
+      </c>
+      <c r="B119" s="8">
+        <v>60</v>
+      </c>
+      <c r="C119" s="9"/>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" s="8">
+        <v>119</v>
+      </c>
+      <c r="B120" s="8">
+        <v>60</v>
+      </c>
+      <c r="C120" s="9"/>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="8">
+        <v>120</v>
+      </c>
+      <c r="B121" s="8">
+        <v>60</v>
+      </c>
+      <c r="C121" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,12 +150,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -196,7 +190,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -207,22 +201,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -760,6 +745,271 @@
         <row r="101">
           <cell r="B101">
             <v>17</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="B102">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="B103">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="B104">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="B105">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="B106">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="B107">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="B108">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="B109">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="B110">
+            <v>58</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="B111">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="B112">
+            <v>59</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="B113">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="B114">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="B115">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="B116">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="B117">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="B118">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="B119">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="B120">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="B121">
+            <v>60</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="B122">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="B123">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="B124">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="B125">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="B126">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="B127">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="B128">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="B129">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="B130">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="B131">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="B132">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="B133">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="B134">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="B135">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="B136">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="B137">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="B138">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="B139">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="B140">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="B141">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="B142">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="B143">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="B144">
+            <v>26</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="B145">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="B146">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="B147">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="B148">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="B149">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="B150">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="B151">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="B152">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="B153">
+            <v>61</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="B154">
+            <v>61</v>
           </cell>
         </row>
       </sheetData>
@@ -1039,17 +1289,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D121"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="6"/>
-    <col min="3" max="3" width="11.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9" style="4"/>
+    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
     <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
@@ -1787,7 +2038,7 @@
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="6">
+      <c r="C81" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1799,7 +2050,7 @@
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="6">
+      <c r="C82" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1811,7 +2062,7 @@
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="6">
+      <c r="C83" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1823,7 +2074,7 @@
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="6">
+      <c r="C84" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1862,7 +2113,7 @@
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1874,7 +2125,7 @@
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1886,7 +2137,7 @@
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1898,7 +2149,7 @@
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="4">
         <v>9</v>
       </c>
     </row>
@@ -1946,7 +2197,7 @@
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="4">
         <v>9</v>
       </c>
       <c r="D95" s="1" t="s">
@@ -1961,7 +2212,7 @@
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="4">
         <v>9</v>
       </c>
       <c r="D96" s="1" t="s">
@@ -1976,7 +2227,7 @@
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="4">
         <v>9</v>
       </c>
       <c r="D97" s="1" t="s">
@@ -1991,7 +2242,7 @@
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="6">
+      <c r="C98" s="4">
         <v>9</v>
       </c>
       <c r="D98" s="1" t="s">
@@ -2006,7 +2257,7 @@
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="6">
+      <c r="C99" s="4">
         <v>9</v>
       </c>
       <c r="D99" s="1" t="s">
@@ -2021,7 +2272,7 @@
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="6">
+      <c r="C100" s="4">
         <v>9</v>
       </c>
       <c r="D100" s="1" t="s">
@@ -2036,7 +2287,7 @@
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="6">
+      <c r="C101" s="4">
         <v>9</v>
       </c>
       <c r="D101" s="1" t="s">
@@ -2044,206 +2295,566 @@
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="8">
+      <c r="A102" s="3">
         <v>101</v>
       </c>
-      <c r="B102" s="7">
+      <c r="B102" s="3">
+        <f>[1]use_fish!$B102</f>
         <v>13</v>
       </c>
-      <c r="C102" s="9">
+      <c r="C102" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="8">
+      <c r="A103" s="3">
         <v>102</v>
       </c>
-      <c r="B103" s="7">
+      <c r="B103" s="3">
+        <f>[1]use_fish!$B103</f>
         <v>14</v>
       </c>
-      <c r="C103" s="9">
+      <c r="C103" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="8">
+      <c r="A104" s="3">
         <v>103</v>
       </c>
-      <c r="B104" s="7">
+      <c r="B104" s="3">
+        <f>[1]use_fish!$B104</f>
         <v>15</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="8">
+      <c r="A105" s="3">
         <v>104</v>
       </c>
-      <c r="B105" s="7">
+      <c r="B105" s="3">
+        <f>[1]use_fish!$B105</f>
         <v>16</v>
       </c>
-      <c r="C105" s="9">
+      <c r="C105" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="8">
+      <c r="A106" s="3">
         <v>105</v>
       </c>
-      <c r="B106" s="7">
+      <c r="B106" s="3">
+        <f>[1]use_fish!$B106</f>
         <v>17</v>
       </c>
-      <c r="C106" s="9">
+      <c r="C106" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="8">
+      <c r="A107" s="3">
         <v>106</v>
       </c>
-      <c r="B107" s="7">
+      <c r="B107" s="3">
+        <f>[1]use_fish!$B107</f>
         <v>18</v>
       </c>
-      <c r="C107" s="9">
+      <c r="C107" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="8">
+      <c r="A108" s="3">
         <v>107</v>
       </c>
-      <c r="B108" s="8">
+      <c r="B108" s="3">
+        <f>[1]use_fish!$B108</f>
         <v>58</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="5"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="8">
+      <c r="A109" s="3">
         <v>108</v>
       </c>
-      <c r="B109" s="8">
+      <c r="B109" s="3">
+        <f>[1]use_fish!$B109</f>
         <v>58</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="5"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="8">
+      <c r="A110" s="3">
         <v>109</v>
       </c>
-      <c r="B110" s="8">
+      <c r="B110" s="3">
+        <f>[1]use_fish!$B110</f>
         <v>58</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="5"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="4">
+      <c r="A111" s="3">
         <v>110</v>
       </c>
-      <c r="B111" s="5">
+      <c r="B111" s="3">
+        <f>[1]use_fish!$B111</f>
         <v>59</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="4">
+      <c r="A112" s="3">
         <v>111</v>
       </c>
-      <c r="B112" s="5">
+      <c r="B112" s="3">
+        <f>[1]use_fish!$B112</f>
         <v>59</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="8">
+      <c r="A113" s="3">
         <v>112</v>
       </c>
-      <c r="B113" s="7">
+      <c r="B113" s="3">
+        <f>[1]use_fish!$B113</f>
         <v>13</v>
       </c>
-      <c r="C113" s="9">
+      <c r="C113" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="8">
+      <c r="A114" s="3">
         <v>113</v>
       </c>
-      <c r="B114" s="7">
+      <c r="B114" s="3">
+        <f>[1]use_fish!$B114</f>
         <v>14</v>
       </c>
-      <c r="C114" s="9">
+      <c r="C114" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="8">
+      <c r="A115" s="3">
         <v>114</v>
       </c>
-      <c r="B115" s="7">
+      <c r="B115" s="3">
+        <f>[1]use_fish!$B115</f>
         <v>15</v>
       </c>
-      <c r="C115" s="9">
+      <c r="C115" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="8">
+      <c r="A116" s="3">
         <v>115</v>
       </c>
-      <c r="B116" s="7">
+      <c r="B116" s="3">
+        <f>[1]use_fish!$B116</f>
         <v>16</v>
       </c>
-      <c r="C116" s="9">
+      <c r="C116" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="8">
+      <c r="A117" s="3">
         <v>116</v>
       </c>
-      <c r="B117" s="7">
+      <c r="B117" s="3">
+        <f>[1]use_fish!$B117</f>
         <v>17</v>
       </c>
-      <c r="C117" s="9">
+      <c r="C117" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="8">
+      <c r="A118" s="3">
         <v>117</v>
       </c>
-      <c r="B118" s="7">
+      <c r="B118" s="3">
+        <f>[1]use_fish!$B118</f>
         <v>18</v>
       </c>
-      <c r="C118" s="9">
+      <c r="C118" s="5">
         <v>9</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="8">
+      <c r="A119" s="3">
         <v>118</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="3">
+        <f>[1]use_fish!$B119</f>
         <v>60</v>
       </c>
-      <c r="C119" s="9"/>
+      <c r="C119" s="6"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="8">
+      <c r="A120" s="3">
         <v>119</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="3">
+        <f>[1]use_fish!$B120</f>
         <v>60</v>
       </c>
-      <c r="C120" s="9"/>
+      <c r="C120" s="6"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="8">
+      <c r="A121" s="3">
         <v>120</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="3">
+        <f>[1]use_fish!$B121</f>
         <v>60</v>
       </c>
-      <c r="C121" s="9"/>
+      <c r="C121" s="6"/>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
+        <v>121</v>
+      </c>
+      <c r="B122" s="3">
+        <f>[1]use_fish!$B122</f>
+        <v>20</v>
+      </c>
+      <c r="C122" s="6"/>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
+        <v>122</v>
+      </c>
+      <c r="B123" s="3">
+        <f>[1]use_fish!$B123</f>
+        <v>22</v>
+      </c>
+      <c r="C123" s="6"/>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
+        <v>123</v>
+      </c>
+      <c r="B124" s="3">
+        <f>[1]use_fish!$B124</f>
+        <v>23</v>
+      </c>
+      <c r="C124" s="6"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
+        <v>124</v>
+      </c>
+      <c r="B125" s="3">
+        <f>[1]use_fish!$B125</f>
+        <v>25</v>
+      </c>
+      <c r="C125" s="6"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
+        <v>125</v>
+      </c>
+      <c r="B126" s="3">
+        <f>[1]use_fish!$B126</f>
+        <v>26</v>
+      </c>
+      <c r="C126" s="6"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
+        <v>126</v>
+      </c>
+      <c r="B127" s="3">
+        <f>[1]use_fish!$B127</f>
+        <v>27</v>
+      </c>
+      <c r="C127" s="6"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
+        <v>127</v>
+      </c>
+      <c r="B128" s="3">
+        <f>[1]use_fish!$B128</f>
+        <v>20</v>
+      </c>
+      <c r="C128" s="6"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
+        <v>128</v>
+      </c>
+      <c r="B129" s="3">
+        <f>[1]use_fish!$B129</f>
+        <v>22</v>
+      </c>
+      <c r="C129" s="6"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
+        <v>129</v>
+      </c>
+      <c r="B130" s="3">
+        <f>[1]use_fish!$B130</f>
+        <v>23</v>
+      </c>
+      <c r="C130" s="6"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
+        <v>130</v>
+      </c>
+      <c r="B131" s="3">
+        <f>[1]use_fish!$B131</f>
+        <v>25</v>
+      </c>
+      <c r="C131" s="6"/>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
+        <v>131</v>
+      </c>
+      <c r="B132" s="3">
+        <f>[1]use_fish!$B132</f>
+        <v>26</v>
+      </c>
+      <c r="C132" s="6"/>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
+        <v>132</v>
+      </c>
+      <c r="B133" s="3">
+        <f>[1]use_fish!$B133</f>
+        <v>27</v>
+      </c>
+      <c r="C133" s="6"/>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
+        <v>133</v>
+      </c>
+      <c r="B134" s="3">
+        <f>[1]use_fish!$B134</f>
+        <v>20</v>
+      </c>
+      <c r="C134" s="6"/>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
+        <v>134</v>
+      </c>
+      <c r="B135" s="3">
+        <f>[1]use_fish!$B135</f>
+        <v>22</v>
+      </c>
+      <c r="C135" s="6"/>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
+        <v>135</v>
+      </c>
+      <c r="B136" s="3">
+        <f>[1]use_fish!$B136</f>
+        <v>23</v>
+      </c>
+      <c r="C136" s="6"/>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
+        <v>136</v>
+      </c>
+      <c r="B137" s="3">
+        <f>[1]use_fish!$B137</f>
+        <v>25</v>
+      </c>
+      <c r="C137" s="6"/>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
+        <v>137</v>
+      </c>
+      <c r="B138" s="3">
+        <f>[1]use_fish!$B138</f>
+        <v>26</v>
+      </c>
+      <c r="C138" s="6"/>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
+        <v>138</v>
+      </c>
+      <c r="B139" s="3">
+        <f>[1]use_fish!$B139</f>
+        <v>27</v>
+      </c>
+      <c r="C139" s="6"/>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
+        <v>139</v>
+      </c>
+      <c r="B140" s="3">
+        <f>[1]use_fish!$B140</f>
+        <v>20</v>
+      </c>
+      <c r="C140" s="6"/>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
+        <v>140</v>
+      </c>
+      <c r="B141" s="3">
+        <f>[1]use_fish!$B141</f>
+        <v>22</v>
+      </c>
+      <c r="C141" s="6"/>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
+        <v>141</v>
+      </c>
+      <c r="B142" s="3">
+        <f>[1]use_fish!$B142</f>
+        <v>23</v>
+      </c>
+      <c r="C142" s="6"/>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
+        <v>142</v>
+      </c>
+      <c r="B143" s="3">
+        <f>[1]use_fish!$B143</f>
+        <v>25</v>
+      </c>
+      <c r="C143" s="6"/>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" s="3">
+        <v>143</v>
+      </c>
+      <c r="B144" s="3">
+        <f>[1]use_fish!$B144</f>
+        <v>26</v>
+      </c>
+      <c r="C144" s="6"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="3">
+        <v>144</v>
+      </c>
+      <c r="B145" s="3">
+        <f>[1]use_fish!$B145</f>
+        <v>27</v>
+      </c>
+      <c r="C145" s="6"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="3">
+        <v>145</v>
+      </c>
+      <c r="B146" s="3">
+        <f>[1]use_fish!$B146</f>
+        <v>13</v>
+      </c>
+      <c r="C146" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="3">
+        <v>146</v>
+      </c>
+      <c r="B147" s="3">
+        <f>[1]use_fish!$B147</f>
+        <v>14</v>
+      </c>
+      <c r="C147" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="3">
+        <v>147</v>
+      </c>
+      <c r="B148" s="3">
+        <f>[1]use_fish!$B148</f>
+        <v>15</v>
+      </c>
+      <c r="C148" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="3">
+        <v>148</v>
+      </c>
+      <c r="B149" s="3">
+        <f>[1]use_fish!$B149</f>
+        <v>16</v>
+      </c>
+      <c r="C149" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="3">
+        <v>149</v>
+      </c>
+      <c r="B150" s="3">
+        <f>[1]use_fish!$B150</f>
+        <v>17</v>
+      </c>
+      <c r="C150" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="3">
+        <v>150</v>
+      </c>
+      <c r="B151" s="3">
+        <f>[1]use_fish!$B151</f>
+        <v>18</v>
+      </c>
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="3">
+        <v>151</v>
+      </c>
+      <c r="B152" s="3">
+        <f>[1]use_fish!$B152</f>
+        <v>61</v>
+      </c>
+      <c r="C152" s="6"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="3">
+        <v>152</v>
+      </c>
+      <c r="B153" s="3">
+        <f>[1]use_fish!$B153</f>
+        <v>61</v>
+      </c>
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="3">
+        <v>153</v>
+      </c>
+      <c r="B154" s="3">
+        <f>[1]use_fish!$B154</f>
+        <v>61</v>
+      </c>
+      <c r="C154" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -1010,6 +1010,51 @@
         <row r="154">
           <cell r="B154">
             <v>61</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="B161">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="B162">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="B163">
+            <v>18</v>
           </cell>
         </row>
       </sheetData>
@@ -1289,11 +1334,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H136" sqref="H136"/>
+      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2856,6 +2901,105 @@
       </c>
       <c r="C154" s="6"/>
     </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3">
+        <v>154</v>
+      </c>
+      <c r="B155" s="3">
+        <f>[1]use_fish!$B155</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3">
+        <v>155</v>
+      </c>
+      <c r="B156" s="3">
+        <f>[1]use_fish!$B156</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3">
+        <v>156</v>
+      </c>
+      <c r="B157" s="3">
+        <f>[1]use_fish!$B157</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3">
+        <v>157</v>
+      </c>
+      <c r="B158" s="3">
+        <f>[1]use_fish!$B158</f>
+        <v>13</v>
+      </c>
+      <c r="C158" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3">
+        <v>158</v>
+      </c>
+      <c r="B159" s="3">
+        <f>[1]use_fish!$B159</f>
+        <v>14</v>
+      </c>
+      <c r="C159" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3">
+        <v>159</v>
+      </c>
+      <c r="B160" s="3">
+        <f>[1]use_fish!$B160</f>
+        <v>15</v>
+      </c>
+      <c r="C160" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="3">
+        <v>160</v>
+      </c>
+      <c r="B161" s="3">
+        <f>[1]use_fish!$B161</f>
+        <v>16</v>
+      </c>
+      <c r="C161" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="3">
+        <v>161</v>
+      </c>
+      <c r="B162" s="3">
+        <f>[1]use_fish!$B162</f>
+        <v>17</v>
+      </c>
+      <c r="C162" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="3">
+        <v>162</v>
+      </c>
+      <c r="B163" s="3">
+        <f>[1]use_fish!$B163</f>
+        <v>18</v>
+      </c>
+      <c r="C163" s="4">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,6 +81,9 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1341,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G161" sqref="G161"/>
+      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2791,7 +2794,7 @@
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2801,7 +2804,7 @@
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -2812,8 +2815,11 @@
       <c r="C146" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D146" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -2824,8 +2830,11 @@
       <c r="C147" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D147" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -2836,8 +2845,11 @@
       <c r="C148" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D148" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -2848,8 +2860,11 @@
       <c r="C149" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D149" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -2860,8 +2875,11 @@
       <c r="C150" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D150" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -2870,8 +2888,11 @@
         <v>18</v>
       </c>
       <c r="C151" s="6"/>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D151" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -2880,8 +2901,11 @@
         <v>61</v>
       </c>
       <c r="C152" s="6"/>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D152" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -2890,8 +2914,11 @@
         <v>61</v>
       </c>
       <c r="C153" s="6"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D153" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -2900,8 +2927,11 @@
         <v>61</v>
       </c>
       <c r="C154" s="6"/>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D154" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -2910,7 +2940,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -2919,7 +2949,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -2928,7 +2958,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -2940,7 +2970,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -2952,7 +2982,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>159</v>
       </c>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
   <si>
     <t>attr_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -81,9 +81,6 @@
   <si>
     <t>actp_031_xxy_show</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>actp_own_task_p_no_vivo</t>
   </si>
 </sst>
 </file>
@@ -142,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +155,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,7 +196,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
@@ -211,6 +214,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1013,51 +1022,6 @@
         <row r="154">
           <cell r="B154">
             <v>61</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>63</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>18</v>
           </cell>
         </row>
       </sheetData>
@@ -1341,7 +1305,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D159" sqref="D159"/>
+      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2794,7 +2758,7 @@
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -2804,231 +2768,143 @@
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A146" s="3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" s="7">
         <v>145</v>
       </c>
       <c r="B146" s="3">
         <f>[1]use_fish!$B146</f>
         <v>13</v>
       </c>
-      <c r="C146" s="6">
-        <v>9</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A147" s="3">
+      <c r="C146" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="7">
         <v>146</v>
       </c>
       <c r="B147" s="3">
         <f>[1]use_fish!$B147</f>
         <v>14</v>
       </c>
-      <c r="C147" s="6">
-        <v>9</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A148" s="3">
+      <c r="C147" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="7">
         <v>147</v>
       </c>
       <c r="B148" s="3">
         <f>[1]use_fish!$B148</f>
         <v>15</v>
       </c>
-      <c r="C148" s="6">
-        <v>9</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A149" s="3">
+      <c r="C148" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="7">
         <v>148</v>
       </c>
       <c r="B149" s="3">
         <f>[1]use_fish!$B149</f>
         <v>16</v>
       </c>
-      <c r="C149" s="6">
-        <v>9</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A150" s="3">
+      <c r="C149" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" s="7">
         <v>149</v>
       </c>
       <c r="B150" s="3">
         <f>[1]use_fish!$B150</f>
         <v>17</v>
       </c>
-      <c r="C150" s="6">
-        <v>9</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A151" s="3">
+      <c r="C150" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="7">
         <v>150</v>
       </c>
       <c r="B151" s="3">
         <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
-      <c r="C151" s="6"/>
-      <c r="D151" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A152" s="3">
+      <c r="C151" s="8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="7">
         <v>151</v>
       </c>
       <c r="B152" s="3">
         <f>[1]use_fish!$B152</f>
         <v>61</v>
       </c>
-      <c r="C152" s="6"/>
-      <c r="D152" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A153" s="3">
+      <c r="C152" s="8"/>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="7">
         <v>152</v>
       </c>
       <c r="B153" s="3">
         <f>[1]use_fish!$B153</f>
         <v>61</v>
       </c>
-      <c r="C153" s="6"/>
-      <c r="D153" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A154" s="3">
+      <c r="C153" s="8"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="7">
         <v>153</v>
       </c>
       <c r="B154" s="3">
         <f>[1]use_fish!$B154</f>
         <v>61</v>
       </c>
-      <c r="C154" s="6"/>
-      <c r="D154" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A155" s="3">
-        <v>154</v>
-      </c>
-      <c r="B155" s="3">
-        <f>[1]use_fish!$B155</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A156" s="3">
-        <v>155</v>
-      </c>
-      <c r="B156" s="3">
-        <f>[1]use_fish!$B156</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A157" s="3">
-        <v>156</v>
-      </c>
-      <c r="B157" s="3">
-        <f>[1]use_fish!$B157</f>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A158" s="3">
-        <v>157</v>
-      </c>
-      <c r="B158" s="3">
-        <f>[1]use_fish!$B158</f>
-        <v>13</v>
-      </c>
-      <c r="C158" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A159" s="3">
-        <v>158</v>
-      </c>
-      <c r="B159" s="3">
-        <f>[1]use_fish!$B159</f>
-        <v>14</v>
-      </c>
-      <c r="C159" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A160" s="3">
-        <v>159</v>
-      </c>
-      <c r="B160" s="3">
-        <f>[1]use_fish!$B160</f>
-        <v>15</v>
-      </c>
-      <c r="C160" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A161" s="3">
-        <v>160</v>
-      </c>
-      <c r="B161" s="3">
-        <f>[1]use_fish!$B161</f>
-        <v>16</v>
-      </c>
-      <c r="C161" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A162" s="3">
-        <v>161</v>
-      </c>
-      <c r="B162" s="3">
-        <f>[1]use_fish!$B162</f>
-        <v>17</v>
-      </c>
-      <c r="C162" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A163" s="3">
-        <v>162</v>
-      </c>
-      <c r="B163" s="3">
-        <f>[1]use_fish!$B163</f>
-        <v>18</v>
-      </c>
-      <c r="C163" s="4">
-        <v>9</v>
-      </c>
+      <c r="C154" s="8"/>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -139,7 +139,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -155,12 +155,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -216,10 +210,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,6 +1016,36 @@
         <row r="154">
           <cell r="B154">
             <v>61</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="B155">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="B156">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="B157">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="B158">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="B159">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="B160">
+            <v>18</v>
           </cell>
         </row>
       </sheetData>
@@ -1301,11 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D163"/>
+  <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A132" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D152" sqref="D152"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C173" sqref="C173:C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2772,11 +2796,11 @@
       <c r="A146" s="7">
         <v>145</v>
       </c>
-      <c r="B146" s="3">
+      <c r="B146" s="7">
         <f>[1]use_fish!$B146</f>
         <v>13</v>
       </c>
-      <c r="C146" s="8">
+      <c r="C146" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2784,11 +2808,11 @@
       <c r="A147" s="7">
         <v>146</v>
       </c>
-      <c r="B147" s="3">
+      <c r="B147" s="7">
         <f>[1]use_fish!$B147</f>
         <v>14</v>
       </c>
-      <c r="C147" s="8">
+      <c r="C147" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2796,11 +2820,11 @@
       <c r="A148" s="7">
         <v>147</v>
       </c>
-      <c r="B148" s="3">
+      <c r="B148" s="7">
         <f>[1]use_fish!$B148</f>
         <v>15</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2808,11 +2832,11 @@
       <c r="A149" s="7">
         <v>148</v>
       </c>
-      <c r="B149" s="3">
+      <c r="B149" s="7">
         <f>[1]use_fish!$B149</f>
         <v>16</v>
       </c>
-      <c r="C149" s="8">
+      <c r="C149" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2820,11 +2844,11 @@
       <c r="A150" s="7">
         <v>149</v>
       </c>
-      <c r="B150" s="3">
+      <c r="B150" s="7">
         <f>[1]use_fish!$B150</f>
         <v>17</v>
       </c>
-      <c r="C150" s="8">
+      <c r="C150" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2832,11 +2856,11 @@
       <c r="A151" s="7">
         <v>150</v>
       </c>
-      <c r="B151" s="3">
+      <c r="B151" s="7">
         <f>[1]use_fish!$B151</f>
         <v>18</v>
       </c>
-      <c r="C151" s="8">
+      <c r="C151" s="6">
         <v>9</v>
       </c>
     </row>
@@ -2844,67 +2868,267 @@
       <c r="A152" s="7">
         <v>151</v>
       </c>
-      <c r="B152" s="3">
+      <c r="B152" s="7">
         <f>[1]use_fish!$B152</f>
         <v>61</v>
       </c>
-      <c r="C152" s="8"/>
+      <c r="C152" s="6"/>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
-      <c r="B153" s="3">
+      <c r="B153" s="7">
         <f>[1]use_fish!$B153</f>
         <v>61</v>
       </c>
-      <c r="C153" s="8"/>
+      <c r="C153" s="6"/>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
-      <c r="B154" s="3">
+      <c r="B154" s="7">
         <f>[1]use_fish!$B154</f>
         <v>61</v>
       </c>
-      <c r="C154" s="8"/>
+      <c r="C154" s="6"/>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
+      <c r="A155" s="7">
+        <v>154</v>
+      </c>
+      <c r="B155" s="7">
+        <f>[1]use_fish!$B155</f>
+        <v>13</v>
+      </c>
+      <c r="C155" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="A156" s="7">
+        <v>155</v>
+      </c>
+      <c r="B156" s="7">
+        <f>[1]use_fish!$B156</f>
+        <v>14</v>
+      </c>
+      <c r="C156" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A157" s="3"/>
-      <c r="B157" s="3"/>
+      <c r="A157" s="7">
+        <v>156</v>
+      </c>
+      <c r="B157" s="7">
+        <f>[1]use_fish!$B157</f>
+        <v>15</v>
+      </c>
+      <c r="C157" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="A158" s="7">
+        <v>157</v>
+      </c>
+      <c r="B158" s="7">
+        <f>[1]use_fish!$B158</f>
+        <v>16</v>
+      </c>
+      <c r="C158" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="3"/>
-      <c r="B159" s="3"/>
+      <c r="A159" s="7">
+        <v>158</v>
+      </c>
+      <c r="B159" s="7">
+        <f>[1]use_fish!$B159</f>
+        <v>17</v>
+      </c>
+      <c r="C159" s="6">
+        <v>9</v>
+      </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" s="3"/>
-      <c r="B161" s="3"/>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" s="3"/>
-      <c r="B162" s="3"/>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" s="3"/>
-      <c r="B163" s="3"/>
+      <c r="A160" s="7">
+        <v>159</v>
+      </c>
+      <c r="B160" s="7">
+        <f>[1]use_fish!$B160</f>
+        <v>18</v>
+      </c>
+      <c r="C160" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A161" s="7">
+        <v>160</v>
+      </c>
+      <c r="B161" s="7">
+        <v>61</v>
+      </c>
+      <c r="C161" s="6"/>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A162" s="7">
+        <v>161</v>
+      </c>
+      <c r="B162" s="7">
+        <v>61</v>
+      </c>
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A163" s="7">
+        <v>162</v>
+      </c>
+      <c r="B163" s="7">
+        <v>61</v>
+      </c>
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A164" s="7">
+        <v>163</v>
+      </c>
+      <c r="B164" s="8">
+        <v>13</v>
+      </c>
+      <c r="C164" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" s="7">
+        <v>164</v>
+      </c>
+      <c r="B165" s="8">
+        <v>14</v>
+      </c>
+      <c r="C165" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" s="7">
+        <v>165</v>
+      </c>
+      <c r="B166" s="8">
+        <v>15</v>
+      </c>
+      <c r="C166" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" s="7">
+        <v>166</v>
+      </c>
+      <c r="B167" s="8">
+        <v>16</v>
+      </c>
+      <c r="C167" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" s="7">
+        <v>167</v>
+      </c>
+      <c r="B168" s="8">
+        <v>17</v>
+      </c>
+      <c r="C168" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" s="7">
+        <v>168</v>
+      </c>
+      <c r="B169" s="8">
+        <v>18</v>
+      </c>
+      <c r="C169" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" s="7">
+        <v>169</v>
+      </c>
+      <c r="B170" s="7">
+        <v>61</v>
+      </c>
+      <c r="C170" s="6"/>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="7">
+        <v>170</v>
+      </c>
+      <c r="B171" s="7">
+        <v>61</v>
+      </c>
+      <c r="C171" s="6"/>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="7">
+        <v>171</v>
+      </c>
+      <c r="B172" s="7">
+        <v>61</v>
+      </c>
+      <c r="C172" s="6"/>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="7">
+        <v>172</v>
+      </c>
+      <c r="B173" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="7">
+        <v>173</v>
+      </c>
+      <c r="B174" s="7">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="7"/>
+      <c r="B175" s="7"/>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="7"/>
+      <c r="B176" s="7"/>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" s="7"/>
+      <c r="B177" s="7"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" s="7"/>
+      <c r="B178" s="7"/>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" s="7"/>
+      <c r="B179" s="7"/>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" s="7"/>
+      <c r="B180" s="7"/>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" s="7"/>
+      <c r="B181" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -1328,8 +1328,8 @@
   <dimension ref="A1:D181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C173" sqref="C173:C174"/>
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3103,32 +3103,61 @@
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A175" s="7"/>
-      <c r="B175" s="7"/>
+      <c r="A175" s="7">
+        <v>174</v>
+      </c>
+      <c r="B175" s="7">
+        <v>63</v>
+      </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A176" s="7"/>
-      <c r="B176" s="7"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" s="7"/>
-      <c r="B177" s="7"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" s="7"/>
-      <c r="B178" s="7"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" s="7"/>
-      <c r="B179" s="7"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" s="7"/>
-      <c r="B180" s="7"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" s="7">
+        <v>175</v>
+      </c>
+      <c r="B176" s="7">
+        <v>64</v>
+      </c>
+      <c r="C176" s="6"/>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="7">
+        <v>176</v>
+      </c>
+      <c r="B177" s="7">
+        <v>65</v>
+      </c>
+      <c r="C177" s="6"/>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="7">
+        <v>177</v>
+      </c>
+      <c r="B178" s="7">
+        <v>66</v>
+      </c>
+      <c r="C178" s="6"/>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="7">
+        <v>178</v>
+      </c>
+      <c r="B179" s="7">
+        <v>67</v>
+      </c>
+      <c r="C179" s="6"/>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="7">
+        <v>179</v>
+      </c>
+      <c r="B180" s="7">
+        <v>68</v>
+      </c>
+      <c r="C180" s="6"/>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
-      <c r="B181" s="7"/>
+      <c r="C181" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -1325,11 +1325,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D181"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C177" sqref="C177"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3156,8 +3156,53 @@
       <c r="C180" s="6"/>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A181" s="7"/>
+      <c r="A181" s="7">
+        <v>180</v>
+      </c>
+      <c r="B181" s="4">
+        <v>20</v>
+      </c>
       <c r="C181" s="6"/>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="7">
+        <v>181</v>
+      </c>
+      <c r="B182" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="7">
+        <v>182</v>
+      </c>
+      <c r="B183" s="4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="7">
+        <v>183</v>
+      </c>
+      <c r="B184" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="7">
+        <v>184</v>
+      </c>
+      <c r="B185" s="4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="7">
+        <v>185</v>
+      </c>
+      <c r="B186" s="4">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="use_fish" sheetId="2" r:id="rId1"/>
@@ -12,12 +12,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,15 +22,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -43,9 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -58,88 +49,223 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
-    <t>attr_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>id</t>
   </si>
   <si>
     <t>fish_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>attr_id</t>
   </si>
   <si>
     <t>cond_key|权限</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>actp_031_xxy_show</t>
-  </si>
-  <si>
-    <t>actp_031_xxy_show</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0B0B0B"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0B0B0B"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,12 +280,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,32 +494,274 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -217,26 +771,70 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="group"/>
@@ -1105,7 +1703,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1140,7 +1738,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1314,1027 +1912,1023 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D186"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B184" sqref="B184"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="9" style="4"/>
-    <col min="3" max="3" width="11.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="37.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="11.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="37.875" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <f>[1]use_fish!$B2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
+    <row r="3" spans="1:2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <f>[1]use_fish!$B3</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
+    <row r="4" spans="1:2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="4">
         <f>[1]use_fish!$B4</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+    <row r="5" spans="1:2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="4">
         <f>[1]use_fish!$B5</f>
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+    <row r="6" spans="1:2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="4">
         <f>[1]use_fish!$B6</f>
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+    <row r="7" spans="1:2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="4">
         <f>[1]use_fish!$B7</f>
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+    <row r="8" spans="1:2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8" s="4">
         <f>[1]use_fish!$B8</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+    <row r="9" spans="1:2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="4">
         <f>[1]use_fish!$B9</f>
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="10" spans="1:2">
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
         <f>[1]use_fish!$B10</f>
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+    <row r="11" spans="1:2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11" s="4">
         <f>[1]use_fish!$B11</f>
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+    <row r="12" spans="1:2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <f>[1]use_fish!$B12</f>
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+    <row r="13" spans="1:2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="4">
         <f>[1]use_fish!$B13</f>
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+    <row r="14" spans="1:2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14" s="4">
         <f>[1]use_fish!$B14</f>
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+    <row r="15" spans="1:2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="4">
         <f>[1]use_fish!$B15</f>
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+    <row r="16" spans="1:2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16" s="4">
         <f>[1]use_fish!$B16</f>
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+    <row r="17" spans="1:2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="4">
         <f>[1]use_fish!$B17</f>
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+    <row r="18" spans="1:2">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="4">
         <f>[1]use_fish!$B18</f>
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+    <row r="19" spans="1:2">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="4">
         <f>[1]use_fish!$B19</f>
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+    <row r="20" spans="1:2">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="3">
+      <c r="B20" s="4">
         <f>[1]use_fish!$B20</f>
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+    <row r="21" spans="1:2">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="4">
         <f>[1]use_fish!$B21</f>
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+    <row r="22" spans="1:2">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="4">
         <f>[1]use_fish!$B22</f>
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+    <row r="23" spans="1:2">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="4">
         <f>[1]use_fish!$B23</f>
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+    <row r="24" spans="1:2">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="4">
         <f>[1]use_fish!$B24</f>
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+    <row r="25" spans="1:2">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="4">
         <f>[1]use_fish!$B25</f>
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+    <row r="26" spans="1:2">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="4">
         <f>[1]use_fish!$B26</f>
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+    <row r="27" spans="1:2">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="4">
         <f>[1]use_fish!$B27</f>
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+    <row r="28" spans="1:2">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="4">
         <f>[1]use_fish!$B28</f>
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+    <row r="29" spans="1:2">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="4">
         <f>[1]use_fish!$B29</f>
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+    <row r="30" spans="1:2">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="4">
         <f>[1]use_fish!$B30</f>
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+    <row r="31" spans="1:2">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="4">
         <f>[1]use_fish!$B31</f>
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+    <row r="32" spans="1:2">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32" s="4">
         <f>[1]use_fish!$B32</f>
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+    <row r="33" spans="1:2">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="4">
         <f>[1]use_fish!$B33</f>
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+    <row r="34" spans="1:2">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34" s="4">
         <f>[1]use_fish!$B34</f>
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+    <row r="35" spans="1:2">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35" s="4">
         <f>[1]use_fish!$B35</f>
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+    <row r="36" spans="1:2">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36" s="4">
         <f>[1]use_fish!$B36</f>
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+    <row r="37" spans="1:2">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37" s="4">
         <f>[1]use_fish!$B37</f>
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+    <row r="38" spans="1:2">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B38" s="4">
         <f>[1]use_fish!$B38</f>
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+    <row r="39" spans="1:2">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39" s="4">
         <f>[1]use_fish!$B39</f>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+    <row r="40" spans="1:2">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="4">
         <f>[1]use_fish!$B40</f>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+    <row r="41" spans="1:2">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41" s="4">
         <f>[1]use_fish!$B41</f>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+    <row r="42" spans="1:2">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42" s="4">
         <f>[1]use_fish!$B42</f>
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+    <row r="43" spans="1:2">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43" s="4">
         <f>[1]use_fish!$B43</f>
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+    <row r="44" spans="1:2">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="4">
         <f>[1]use_fish!$B44</f>
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+    <row r="45" spans="1:2">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45" s="4">
         <f>[1]use_fish!$B45</f>
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+    <row r="46" spans="1:2">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="4">
         <f>[1]use_fish!$B46</f>
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+    <row r="47" spans="1:2">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47" s="4">
         <f>[1]use_fish!$B47</f>
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+    <row r="48" spans="1:2">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48" s="4">
         <f>[1]use_fish!$B48</f>
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+    <row r="49" spans="1:2">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="4">
         <f>[1]use_fish!$B49</f>
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+    <row r="50" spans="1:2">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50" s="4">
         <f>[1]use_fish!$B50</f>
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+    <row r="51" spans="1:2">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51" s="4">
         <f>[1]use_fish!$B51</f>
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+    <row r="52" spans="1:2">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="4">
         <f>[1]use_fish!$B52</f>
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="3">
+    <row r="53" spans="1:2">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="4">
         <f>[1]use_fish!$B53</f>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="3">
+    <row r="54" spans="1:2">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B54" s="4">
         <f>[1]use_fish!$B54</f>
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="3">
+    <row r="55" spans="1:2">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="3">
+      <c r="B55" s="4">
         <f>[1]use_fish!$B55</f>
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="3">
+    <row r="56" spans="1:2">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56" s="4">
         <f>[1]use_fish!$B56</f>
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="3">
+    <row r="57" spans="1:2">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57" s="4">
         <f>[1]use_fish!$B57</f>
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="3">
+    <row r="58" spans="1:2">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="4">
         <f>[1]use_fish!$B58</f>
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="3">
+    <row r="59" spans="1:2">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59" s="4">
         <f>[1]use_fish!$B59</f>
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="3">
+    <row r="60" spans="1:2">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="4">
         <f>[1]use_fish!$B60</f>
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="3">
+    <row r="61" spans="1:2">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="4">
         <f>[1]use_fish!$B61</f>
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="3">
+    <row r="62" spans="1:2">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62" s="4">
         <f>[1]use_fish!$B62</f>
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="3">
+    <row r="63" spans="1:2">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="3">
+      <c r="B63" s="4">
         <f>[1]use_fish!$B63</f>
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="3">
+    <row r="64" spans="1:2">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="4">
         <f>[1]use_fish!$B64</f>
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="3">
+    <row r="65" spans="1:2">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65" s="4">
         <f>[1]use_fish!$B65</f>
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="3">
+    <row r="66" spans="1:2">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66" s="4">
         <f>[1]use_fish!$B66</f>
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="3">
+    <row r="67" spans="1:2">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="4">
         <f>[1]use_fish!$B67</f>
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="3">
+    <row r="68" spans="1:2">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68" s="4">
         <f>[1]use_fish!$B68</f>
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" s="3">
+    <row r="69" spans="1:2">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69" s="4">
         <f>[1]use_fish!$B69</f>
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" s="3">
+    <row r="70" spans="1:2">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="4">
         <f>[1]use_fish!$B70</f>
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" s="3">
+    <row r="71" spans="1:2">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B71" s="4">
         <f>[1]use_fish!$B71</f>
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" s="3">
+    <row r="72" spans="1:2">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72" s="4">
         <f>[1]use_fish!$B72</f>
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" s="3">
+    <row r="73" spans="1:2">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73" s="4">
         <f>[1]use_fish!$B73</f>
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" s="3">
+    <row r="74" spans="1:2">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74" s="4">
         <f>[1]use_fish!$B74</f>
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" s="3">
+    <row r="75" spans="1:2">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75" s="4">
         <f>[1]use_fish!$B75</f>
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" s="3">
+    <row r="76" spans="1:2">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76" s="4">
         <f>[1]use_fish!$B76</f>
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" s="3">
+    <row r="77" spans="1:2">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77" s="4">
         <f>[1]use_fish!$B77</f>
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" s="3">
+    <row r="78" spans="1:2">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78" s="4">
         <f>[1]use_fish!$B78</f>
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" s="3">
+    <row r="79" spans="1:2">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79" s="3">
+      <c r="B79" s="4">
         <f>[1]use_fish!$B79</f>
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" s="3">
+    <row r="80" spans="1:2">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B80" s="4">
         <f>[1]use_fish!$B80</f>
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="3">
+    <row r="81" spans="1:3">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B81" s="4">
         <f>[1]use_fish!$B81</f>
         <v>18</v>
       </c>
-      <c r="C81" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="3">
+      <c r="C81" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B82" s="4">
         <f>[1]use_fish!$B82</f>
         <v>17</v>
       </c>
-      <c r="C82" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="3">
+      <c r="C82" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B83" s="4">
         <f>[1]use_fish!$B83</f>
         <v>15</v>
       </c>
-      <c r="C83" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="3">
+      <c r="C83" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B84" s="4">
         <f>[1]use_fish!$B84</f>
         <v>13</v>
       </c>
-      <c r="C84" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="3">
+      <c r="C84" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B85" s="4">
         <f>[1]use_fish!$B85</f>
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="3">
+    <row r="86" spans="1:2">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B86" s="4">
         <f>[1]use_fish!$B86</f>
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="3">
+    <row r="87" spans="1:2">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87" s="4">
         <f>[1]use_fish!$B87</f>
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="3">
+    <row r="88" spans="1:3">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88" s="3">
+      <c r="B88" s="4">
         <f>[1]use_fish!$B88</f>
         <v>53</v>
       </c>
-      <c r="C88" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="3">
+      <c r="C88" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B89" s="4">
         <f>[1]use_fish!$B89</f>
         <v>54</v>
       </c>
-      <c r="C89" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="3">
+      <c r="C89" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B90" s="4">
         <f>[1]use_fish!$B90</f>
         <v>55</v>
       </c>
-      <c r="C90" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="3">
+      <c r="C90" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91" s="3">
+      <c r="B91" s="4">
         <f>[1]use_fish!$B91</f>
         <v>56</v>
       </c>
-      <c r="C91" s="4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="3">
+      <c r="C91" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92" s="3">
+      <c r="B92" s="4">
         <f>[1]use_fish!$B92</f>
         <v>57</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="3">
+      <c r="D92" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93" s="3">
+      <c r="B93" s="4">
         <f>[1]use_fish!$B93</f>
         <v>57</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="3">
+      <c r="D93" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B94" s="4">
         <f>[1]use_fish!$B94</f>
         <v>57</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="D94" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="3">
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95" s="4">
         <f>[1]use_fish!$B95</f>
         <v>11</v>
       </c>
-      <c r="C95" s="4">
-        <v>9</v>
-      </c>
-      <c r="D95" s="1" t="s">
+      <c r="C95" s="3">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="3">
+    <row r="96" spans="1:4">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B96" s="4">
         <f>[1]use_fish!$B96</f>
         <v>12</v>
       </c>
-      <c r="C96" s="4">
-        <v>9</v>
-      </c>
-      <c r="D96" s="1" t="s">
+      <c r="C96" s="3">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="3">
+    <row r="97" spans="1:4">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B97" s="4">
         <f>[1]use_fish!$B97</f>
         <v>13</v>
       </c>
-      <c r="C97" s="4">
-        <v>9</v>
-      </c>
-      <c r="D97" s="1" t="s">
+      <c r="C97" s="3">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="3">
+    <row r="98" spans="1:4">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B98" s="4">
         <f>[1]use_fish!$B98</f>
         <v>14</v>
       </c>
-      <c r="C98" s="4">
-        <v>9</v>
-      </c>
-      <c r="D98" s="1" t="s">
+      <c r="C98" s="3">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="3">
+    <row r="99" spans="1:4">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99" s="3">
+      <c r="B99" s="4">
         <f>[1]use_fish!$B99</f>
         <v>15</v>
       </c>
-      <c r="C99" s="4">
-        <v>9</v>
-      </c>
-      <c r="D99" s="1" t="s">
+      <c r="C99" s="3">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3">
+    <row r="100" spans="1:4">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100" s="3">
+      <c r="B100" s="4">
         <f>[1]use_fish!$B100</f>
         <v>16</v>
       </c>
-      <c r="C100" s="4">
-        <v>9</v>
-      </c>
-      <c r="D100" s="1" t="s">
+      <c r="C100" s="3">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="3">
+    <row r="101" spans="1:4">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B101" s="4">
         <f>[1]use_fish!$B101</f>
         <v>17</v>
       </c>
-      <c r="C101" s="4">
-        <v>9</v>
-      </c>
-      <c r="D101" s="1" t="s">
+      <c r="C101" s="3">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3">
+    <row r="102" spans="1:3">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B102" s="4">
         <f>[1]use_fish!$B102</f>
         <v>13</v>
       </c>
@@ -2342,11 +2936,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="3">
+    <row r="103" spans="1:3">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="4">
         <f>[1]use_fish!$B103</f>
         <v>14</v>
       </c>
@@ -2354,11 +2948,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="3">
+    <row r="104" spans="1:3">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="4">
         <f>[1]use_fish!$B104</f>
         <v>15</v>
       </c>
@@ -2366,11 +2960,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="3">
+    <row r="105" spans="1:3">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105" s="3">
+      <c r="B105" s="4">
         <f>[1]use_fish!$B105</f>
         <v>16</v>
       </c>
@@ -2378,11 +2972,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="3">
+    <row r="106" spans="1:3">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106" s="3">
+      <c r="B106" s="4">
         <f>[1]use_fish!$B106</f>
         <v>17</v>
       </c>
@@ -2390,11 +2984,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="3">
+    <row r="107" spans="1:3">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107" s="3">
+      <c r="B107" s="4">
         <f>[1]use_fish!$B107</f>
         <v>18</v>
       </c>
@@ -2402,59 +2996,59 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="3">
+    <row r="108" spans="1:3">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108" s="3">
+      <c r="B108" s="4">
         <f>[1]use_fish!$B108</f>
         <v>58</v>
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="3">
+    <row r="109" spans="1:3">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109" s="3">
+      <c r="B109" s="4">
         <f>[1]use_fish!$B109</f>
         <v>58</v>
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A110" s="3">
+    <row r="110" spans="1:3">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110" s="3">
+      <c r="B110" s="4">
         <f>[1]use_fish!$B110</f>
         <v>58</v>
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="3">
+    <row r="111" spans="1:2">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111" s="3">
+      <c r="B111" s="4">
         <f>[1]use_fish!$B111</f>
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="3">
+    <row r="112" spans="1:2">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112" s="3">
+      <c r="B112" s="4">
         <f>[1]use_fish!$B112</f>
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="3">
+    <row r="113" spans="1:3">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113" s="3">
+      <c r="B113" s="4">
         <f>[1]use_fish!$B113</f>
         <v>13</v>
       </c>
@@ -2462,11 +3056,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="3">
+    <row r="114" spans="1:3">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114" s="3">
+      <c r="B114" s="4">
         <f>[1]use_fish!$B114</f>
         <v>14</v>
       </c>
@@ -2474,11 +3068,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="3">
+    <row r="115" spans="1:3">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115" s="3">
+      <c r="B115" s="4">
         <f>[1]use_fish!$B115</f>
         <v>15</v>
       </c>
@@ -2486,11 +3080,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="3">
+    <row r="116" spans="1:3">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116" s="3">
+      <c r="B116" s="4">
         <f>[1]use_fish!$B116</f>
         <v>16</v>
       </c>
@@ -2498,11 +3092,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="3">
+    <row r="117" spans="1:3">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117" s="3">
+      <c r="B117" s="4">
         <f>[1]use_fish!$B117</f>
         <v>17</v>
       </c>
@@ -2510,11 +3104,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="3">
+    <row r="118" spans="1:3">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118" s="3">
+      <c r="B118" s="4">
         <f>[1]use_fish!$B118</f>
         <v>18</v>
       </c>
@@ -2522,277 +3116,277 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="3">
+    <row r="119" spans="1:3">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119" s="3">
+      <c r="B119" s="4">
         <f>[1]use_fish!$B119</f>
         <v>60</v>
       </c>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="3">
+    <row r="120" spans="1:3">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120" s="3">
+      <c r="B120" s="4">
         <f>[1]use_fish!$B120</f>
         <v>60</v>
       </c>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="3">
+    <row r="121" spans="1:3">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121" s="3">
+      <c r="B121" s="4">
         <f>[1]use_fish!$B121</f>
         <v>60</v>
       </c>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="3">
+    <row r="122" spans="1:3">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122" s="3">
+      <c r="B122" s="4">
         <f>[1]use_fish!$B122</f>
         <v>20</v>
       </c>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="3">
+    <row r="123" spans="1:3">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123" s="3">
+      <c r="B123" s="4">
         <f>[1]use_fish!$B123</f>
         <v>22</v>
       </c>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="3">
+    <row r="124" spans="1:3">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124" s="3">
+      <c r="B124" s="4">
         <f>[1]use_fish!$B124</f>
         <v>23</v>
       </c>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="3">
+    <row r="125" spans="1:3">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125" s="3">
+      <c r="B125" s="4">
         <f>[1]use_fish!$B125</f>
         <v>25</v>
       </c>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="3">
+    <row r="126" spans="1:3">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126" s="3">
+      <c r="B126" s="4">
         <f>[1]use_fish!$B126</f>
         <v>26</v>
       </c>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="3">
+    <row r="127" spans="1:3">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127" s="3">
+      <c r="B127" s="4">
         <f>[1]use_fish!$B127</f>
         <v>27</v>
       </c>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="3">
+    <row r="128" spans="1:3">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128" s="3">
+      <c r="B128" s="4">
         <f>[1]use_fish!$B128</f>
         <v>20</v>
       </c>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" s="3">
+    <row r="129" spans="1:3">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129" s="3">
+      <c r="B129" s="4">
         <f>[1]use_fish!$B129</f>
         <v>22</v>
       </c>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" s="3">
+    <row r="130" spans="1:3">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130" s="3">
+      <c r="B130" s="4">
         <f>[1]use_fish!$B130</f>
         <v>23</v>
       </c>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" s="3">
+    <row r="131" spans="1:3">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131" s="3">
+      <c r="B131" s="4">
         <f>[1]use_fish!$B131</f>
         <v>25</v>
       </c>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" s="3">
+    <row r="132" spans="1:3">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132" s="3">
+      <c r="B132" s="4">
         <f>[1]use_fish!$B132</f>
         <v>26</v>
       </c>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" s="3">
+    <row r="133" spans="1:3">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133" s="3">
+      <c r="B133" s="4">
         <f>[1]use_fish!$B133</f>
         <v>27</v>
       </c>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" s="3">
+    <row r="134" spans="1:3">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="4">
         <f>[1]use_fish!$B134</f>
         <v>20</v>
       </c>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" s="3">
+    <row r="135" spans="1:3">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="4">
         <f>[1]use_fish!$B135</f>
         <v>22</v>
       </c>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" s="3">
+    <row r="136" spans="1:3">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="4">
         <f>[1]use_fish!$B136</f>
         <v>23</v>
       </c>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" s="3">
+    <row r="137" spans="1:3">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="4">
         <f>[1]use_fish!$B137</f>
         <v>25</v>
       </c>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" s="3">
+    <row r="138" spans="1:3">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="4">
         <f>[1]use_fish!$B138</f>
         <v>26</v>
       </c>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" s="3">
+    <row r="139" spans="1:3">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="4">
         <f>[1]use_fish!$B139</f>
         <v>27</v>
       </c>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" s="3">
+    <row r="140" spans="1:3">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="4">
         <f>[1]use_fish!$B140</f>
         <v>20</v>
       </c>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A141" s="3">
+    <row r="141" spans="1:3">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141" s="3">
+      <c r="B141" s="4">
         <f>[1]use_fish!$B141</f>
         <v>22</v>
       </c>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A142" s="3">
+    <row r="142" spans="1:3">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142" s="3">
+      <c r="B142" s="4">
         <f>[1]use_fish!$B142</f>
         <v>23</v>
       </c>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A143" s="3">
+    <row r="143" spans="1:3">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143" s="3">
+      <c r="B143" s="4">
         <f>[1]use_fish!$B143</f>
         <v>25</v>
       </c>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A144" s="3">
+    <row r="144" spans="1:3">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144" s="3">
+      <c r="B144" s="4">
         <f>[1]use_fish!$B144</f>
         <v>26</v>
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="3">
+    <row r="145" spans="1:3">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145" s="3">
+      <c r="B145" s="4">
         <f>[1]use_fish!$B145</f>
         <v>27</v>
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -2804,7 +3398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -2816,7 +3410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -2828,7 +3422,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -2840,7 +3434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -2852,7 +3446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -2864,7 +3458,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -2874,7 +3468,7 @@
       </c>
       <c r="C152" s="6"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -2884,7 +3478,7 @@
       </c>
       <c r="C153" s="6"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -2894,7 +3488,7 @@
       </c>
       <c r="C154" s="6"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -2906,7 +3500,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -2918,7 +3512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -2930,7 +3524,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -2942,7 +3536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -2954,7 +3548,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -2966,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -2975,7 +3569,7 @@
       </c>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:3">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -2984,7 +3578,7 @@
       </c>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:3">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -2993,7 +3587,7 @@
       </c>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:3">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -3004,7 +3598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:3">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -3015,7 +3609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:3">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -3026,7 +3620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:3">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -3037,7 +3631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:3">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -3048,7 +3642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:3">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -3059,7 +3653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:3">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -3068,7 +3662,7 @@
       </c>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:3">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -3077,7 +3671,7 @@
       </c>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:3">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -3086,7 +3680,7 @@
       </c>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -3094,7 +3688,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -3102,7 +3696,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -3110,7 +3704,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:3">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -3119,7 +3713,7 @@
       </c>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -3128,7 +3722,7 @@
       </c>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -3137,7 +3731,7 @@
       </c>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -3146,7 +3740,7 @@
       </c>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -3155,59 +3749,67 @@
       </c>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3">
       <c r="A181" s="7">
         <v>180</v>
       </c>
-      <c r="B181" s="4">
+      <c r="B181" s="3">
         <v>20</v>
       </c>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
-      <c r="B182" s="4">
+      <c r="B182" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
-      <c r="B183" s="4">
+      <c r="B183" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
-      <c r="B184" s="4">
+      <c r="B184" s="3">
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
-      <c r="B185" s="4">
+      <c r="B185" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
-      <c r="B186" s="4">
+      <c r="B186" s="3">
         <v>27</v>
       </c>
     </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="7">
+        <v>186</v>
+      </c>
+      <c r="B187" s="3">
+        <v>61</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/config_Release/fish3d_use_config.xlsx
+++ b/config_Release/fish3d_use_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12090"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="use_fish" sheetId="2" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -22,13 +27,14 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="C1" authorId="0">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -37,6 +43,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -49,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="8">
   <si>
     <t>id</t>
   </si>
@@ -65,18 +72,24 @@
   <si>
     <t>actp_031_xxy_show</t>
   </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>actp_own_task_p_drop_act_nor</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,184 +101,45 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -280,198 +154,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.0999786370433668"/>
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -494,274 +188,32 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="49" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -770,71 +222,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="group"/>
@@ -1912,21 +1323,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D189" sqref="D189"/>
+      <pane ySplit="1" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9" style="3"/>
@@ -1935,7 +1345,7 @@
     <col min="5" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:4">
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1949,7 +1359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -1958,7 +1368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -1967,7 +1377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -1976,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -1985,7 +1395,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -1994,7 +1404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2003,7 +1413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2012,7 +1422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2021,7 +1431,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>9</v>
       </c>
@@ -2030,7 +1440,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>10</v>
       </c>
@@ -2039,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>11</v>
       </c>
@@ -2048,7 +1458,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>12</v>
       </c>
@@ -2057,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>13</v>
       </c>
@@ -2066,7 +1476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>14</v>
       </c>
@@ -2075,7 +1485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>15</v>
       </c>
@@ -2084,7 +1494,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>16</v>
       </c>
@@ -2093,7 +1503,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>17</v>
       </c>
@@ -2102,7 +1512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>18</v>
       </c>
@@ -2111,7 +1521,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>19</v>
       </c>
@@ -2120,7 +1530,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>20</v>
       </c>
@@ -2129,7 +1539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>21</v>
       </c>
@@ -2138,7 +1548,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>22</v>
       </c>
@@ -2147,7 +1557,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>23</v>
       </c>
@@ -2156,7 +1566,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -2165,7 +1575,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -2174,7 +1584,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -2183,7 +1593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -2192,7 +1602,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -2201,7 +1611,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>29</v>
       </c>
@@ -2210,7 +1620,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>30</v>
       </c>
@@ -2219,7 +1629,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>31</v>
       </c>
@@ -2228,7 +1638,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>32</v>
       </c>
@@ -2237,7 +1647,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>33</v>
       </c>
@@ -2246,7 +1656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>34</v>
       </c>
@@ -2255,7 +1665,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>35</v>
       </c>
@@ -2264,7 +1674,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>36</v>
       </c>
@@ -2273,7 +1683,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>37</v>
       </c>
@@ -2282,7 +1692,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>38</v>
       </c>
@@ -2291,7 +1701,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>39</v>
       </c>
@@ -2300,7 +1710,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>40</v>
       </c>
@@ -2309,7 +1719,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>41</v>
       </c>
@@ -2318,7 +1728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>42</v>
       </c>
@@ -2327,7 +1737,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>43</v>
       </c>
@@ -2336,7 +1746,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>44</v>
       </c>
@@ -2345,7 +1755,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>45</v>
       </c>
@@ -2354,7 +1764,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>46</v>
       </c>
@@ -2363,7 +1773,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>47</v>
       </c>
@@ -2372,7 +1782,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>48</v>
       </c>
@@ -2381,7 +1791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>49</v>
       </c>
@@ -2390,7 +1800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>50</v>
       </c>
@@ -2399,7 +1809,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>51</v>
       </c>
@@ -2408,7 +1818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>52</v>
       </c>
@@ -2417,7 +1827,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>53</v>
       </c>
@@ -2426,7 +1836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>54</v>
       </c>
@@ -2435,7 +1845,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>55</v>
       </c>
@@ -2444,7 +1854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>56</v>
       </c>
@@ -2453,7 +1863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>57</v>
       </c>
@@ -2462,7 +1872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>58</v>
       </c>
@@ -2471,7 +1881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>59</v>
       </c>
@@ -2480,7 +1890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>60</v>
       </c>
@@ -2489,7 +1899,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>61</v>
       </c>
@@ -2498,7 +1908,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>62</v>
       </c>
@@ -2507,7 +1917,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>63</v>
       </c>
@@ -2516,7 +1926,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>64</v>
       </c>
@@ -2525,7 +1935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>65</v>
       </c>
@@ -2534,7 +1944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>66</v>
       </c>
@@ -2543,7 +1953,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>67</v>
       </c>
@@ -2552,7 +1962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>68</v>
       </c>
@@ -2561,7 +1971,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>69</v>
       </c>
@@ -2570,7 +1980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>70</v>
       </c>
@@ -2579,7 +1989,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>71</v>
       </c>
@@ -2588,7 +1998,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>72</v>
       </c>
@@ -2597,7 +2007,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>73</v>
       </c>
@@ -2606,7 +2016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>74</v>
       </c>
@@ -2615,7 +2025,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>75</v>
       </c>
@@ -2624,7 +2034,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>76</v>
       </c>
@@ -2633,7 +2043,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>77</v>
       </c>
@@ -2642,7 +2052,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>78</v>
       </c>
@@ -2651,7 +2061,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>79</v>
       </c>
@@ -2660,7 +2070,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>80</v>
       </c>
@@ -2672,7 +2082,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>81</v>
       </c>
@@ -2684,7 +2094,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>82</v>
       </c>
@@ -2696,7 +2106,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>83</v>
       </c>
@@ -2708,7 +2118,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>84</v>
       </c>
@@ -2717,7 +2127,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>85</v>
       </c>
@@ -2726,7 +2136,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>86</v>
       </c>
@@ -2735,7 +2145,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>87</v>
       </c>
@@ -2747,7 +2157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>88</v>
       </c>
@@ -2759,7 +2169,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>89</v>
       </c>
@@ -2771,7 +2181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>90</v>
       </c>
@@ -2783,7 +2193,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>91</v>
       </c>
@@ -2795,7 +2205,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>92</v>
       </c>
@@ -2807,7 +2217,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>93</v>
       </c>
@@ -2819,7 +2229,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>94</v>
       </c>
@@ -2834,7 +2244,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>95</v>
       </c>
@@ -2849,7 +2259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>96</v>
       </c>
@@ -2864,7 +2274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>97</v>
       </c>
@@ -2879,7 +2289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>98</v>
       </c>
@@ -2894,7 +2304,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>99</v>
       </c>
@@ -2909,7 +2319,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="4">
         <v>100</v>
       </c>
@@ -2924,7 +2334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="4">
         <v>101</v>
       </c>
@@ -2936,7 +2346,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="4">
         <v>102</v>
       </c>
@@ -2948,7 +2358,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="4">
         <v>103</v>
       </c>
@@ -2960,7 +2370,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="4">
         <v>104</v>
       </c>
@@ -2972,7 +2382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="4">
         <v>105</v>
       </c>
@@ -2984,7 +2394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="4">
         <v>106</v>
       </c>
@@ -2996,7 +2406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="4">
         <v>107</v>
       </c>
@@ -3006,7 +2416,7 @@
       </c>
       <c r="C108" s="5"/>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="4">
         <v>108</v>
       </c>
@@ -3016,7 +2426,7 @@
       </c>
       <c r="C109" s="5"/>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="4">
         <v>109</v>
       </c>
@@ -3026,7 +2436,7 @@
       </c>
       <c r="C110" s="5"/>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="4">
         <v>110</v>
       </c>
@@ -3035,7 +2445,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="4">
         <v>111</v>
       </c>
@@ -3044,7 +2454,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="4">
         <v>112</v>
       </c>
@@ -3056,7 +2466,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="4">
         <v>113</v>
       </c>
@@ -3068,7 +2478,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="4">
         <v>114</v>
       </c>
@@ -3080,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="4">
         <v>115</v>
       </c>
@@ -3092,7 +2502,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="4">
         <v>116</v>
       </c>
@@ -3104,7 +2514,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="4">
         <v>117</v>
       </c>
@@ -3116,7 +2526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" s="4">
         <v>118</v>
       </c>
@@ -3126,7 +2536,7 @@
       </c>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" s="4">
         <v>119</v>
       </c>
@@ -3136,7 +2546,7 @@
       </c>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" s="4">
         <v>120</v>
       </c>
@@ -3146,7 +2556,7 @@
       </c>
       <c r="C121" s="6"/>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" s="4">
         <v>121</v>
       </c>
@@ -3156,7 +2566,7 @@
       </c>
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" s="4">
         <v>122</v>
       </c>
@@ -3166,7 +2576,7 @@
       </c>
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" s="4">
         <v>123</v>
       </c>
@@ -3176,7 +2586,7 @@
       </c>
       <c r="C124" s="6"/>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" s="4">
         <v>124</v>
       </c>
@@ -3186,7 +2596,7 @@
       </c>
       <c r="C125" s="6"/>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" s="4">
         <v>125</v>
       </c>
@@ -3196,7 +2606,7 @@
       </c>
       <c r="C126" s="6"/>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" s="4">
         <v>126</v>
       </c>
@@ -3206,7 +2616,7 @@
       </c>
       <c r="C127" s="6"/>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" s="4">
         <v>127</v>
       </c>
@@ -3216,7 +2626,7 @@
       </c>
       <c r="C128" s="6"/>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="4">
         <v>128</v>
       </c>
@@ -3226,7 +2636,7 @@
       </c>
       <c r="C129" s="6"/>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="4">
         <v>129</v>
       </c>
@@ -3236,7 +2646,7 @@
       </c>
       <c r="C130" s="6"/>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" s="4">
         <v>130</v>
       </c>
@@ -3246,7 +2656,7 @@
       </c>
       <c r="C131" s="6"/>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="4">
         <v>131</v>
       </c>
@@ -3256,7 +2666,7 @@
       </c>
       <c r="C132" s="6"/>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="4">
         <v>132</v>
       </c>
@@ -3266,7 +2676,7 @@
       </c>
       <c r="C133" s="6"/>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" s="4">
         <v>133</v>
       </c>
@@ -3276,7 +2686,7 @@
       </c>
       <c r="C134" s="6"/>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="4">
         <v>134</v>
       </c>
@@ -3286,7 +2696,7 @@
       </c>
       <c r="C135" s="6"/>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="4">
         <v>135</v>
       </c>
@@ -3296,7 +2706,7 @@
       </c>
       <c r="C136" s="6"/>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" s="4">
         <v>136</v>
       </c>
@@ -3306,7 +2716,7 @@
       </c>
       <c r="C137" s="6"/>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" s="4">
         <v>137</v>
       </c>
@@ -3316,7 +2726,7 @@
       </c>
       <c r="C138" s="6"/>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="4">
         <v>138</v>
       </c>
@@ -3326,7 +2736,7 @@
       </c>
       <c r="C139" s="6"/>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="4">
         <v>139</v>
       </c>
@@ -3336,7 +2746,7 @@
       </c>
       <c r="C140" s="6"/>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="4">
         <v>140</v>
       </c>
@@ -3346,7 +2756,7 @@
       </c>
       <c r="C141" s="6"/>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="4">
         <v>141</v>
       </c>
@@ -3356,7 +2766,7 @@
       </c>
       <c r="C142" s="6"/>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="4">
         <v>142</v>
       </c>
@@ -3366,7 +2776,7 @@
       </c>
       <c r="C143" s="6"/>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" s="4">
         <v>143</v>
       </c>
@@ -3376,7 +2786,7 @@
       </c>
       <c r="C144" s="6"/>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="4">
         <v>144</v>
       </c>
@@ -3386,7 +2796,7 @@
       </c>
       <c r="C145" s="6"/>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="7">
         <v>145</v>
       </c>
@@ -3397,8 +2807,11 @@
       <c r="C146" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:3">
+      <c r="D146" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="7">
         <v>146</v>
       </c>
@@ -3409,8 +2822,11 @@
       <c r="C147" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="148" spans="1:3">
+      <c r="D147" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="7">
         <v>147</v>
       </c>
@@ -3421,8 +2837,11 @@
       <c r="C148" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="149" spans="1:3">
+      <c r="D148" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="7">
         <v>148</v>
       </c>
@@ -3433,8 +2852,11 @@
       <c r="C149" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="150" spans="1:3">
+      <c r="D149" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="7">
         <v>149</v>
       </c>
@@ -3445,8 +2867,11 @@
       <c r="C150" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:3">
+      <c r="D150" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="7">
         <v>150</v>
       </c>
@@ -3457,8 +2882,11 @@
       <c r="C151" s="6">
         <v>9</v>
       </c>
-    </row>
-    <row r="152" spans="1:3">
+      <c r="D151" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="7">
         <v>151</v>
       </c>
@@ -3467,8 +2895,11 @@
         <v>61</v>
       </c>
       <c r="C152" s="6"/>
-    </row>
-    <row r="153" spans="1:3">
+      <c r="D152" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="7">
         <v>152</v>
       </c>
@@ -3477,8 +2908,11 @@
         <v>61</v>
       </c>
       <c r="C153" s="6"/>
-    </row>
-    <row r="154" spans="1:3">
+      <c r="D153" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="7">
         <v>153</v>
       </c>
@@ -3487,8 +2921,11 @@
         <v>61</v>
       </c>
       <c r="C154" s="6"/>
-    </row>
-    <row r="155" spans="1:3">
+      <c r="D154" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="7">
         <v>154</v>
       </c>
@@ -3500,7 +2937,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="7">
         <v>155</v>
       </c>
@@ -3512,7 +2949,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="7">
         <v>156</v>
       </c>
@@ -3524,7 +2961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="7">
         <v>157</v>
       </c>
@@ -3536,7 +2973,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="7">
         <v>158</v>
       </c>
@@ -3548,7 +2985,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -3560,7 +2997,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" s="7">
         <v>160</v>
       </c>
@@ -3569,7 +3006,7 @@
       </c>
       <c r="C161" s="6"/>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" s="7">
         <v>161</v>
       </c>
@@ -3578,7 +3015,7 @@
       </c>
       <c r="C162" s="6"/>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" s="7">
         <v>162</v>
       </c>
@@ -3587,7 +3024,7 @@
       </c>
       <c r="C163" s="6"/>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" s="7">
         <v>163</v>
       </c>
@@ -3598,7 +3035,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" s="7">
         <v>164</v>
       </c>
@@ -3609,7 +3046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" s="7">
         <v>165</v>
       </c>
@@ -3620,7 +3057,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" s="7">
         <v>166</v>
       </c>
@@ -3631,7 +3068,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" s="7">
         <v>167</v>
       </c>
@@ -3642,7 +3079,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" s="7">
         <v>168</v>
       </c>
@@ -3653,7 +3090,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" s="7">
         <v>169</v>
       </c>
@@ -3662,7 +3099,7 @@
       </c>
       <c r="C170" s="6"/>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" s="7">
         <v>170</v>
       </c>
@@ -3671,7 +3108,7 @@
       </c>
       <c r="C171" s="6"/>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" s="7">
         <v>171</v>
       </c>
@@ -3680,7 +3117,7 @@
       </c>
       <c r="C172" s="6"/>
     </row>
-    <row r="173" spans="1:2">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" s="7">
         <v>172</v>
       </c>
@@ -3688,7 +3125,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="174" spans="1:2">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" s="7">
         <v>173</v>
       </c>
@@ -3696,7 +3133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="175" spans="1:2">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" s="7">
         <v>174</v>
       </c>
@@ -3704,7 +3141,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" s="7">
         <v>175</v>
       </c>
@@ -3713,7 +3150,7 @@
       </c>
       <c r="C176" s="6"/>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="7">
         <v>176</v>
       </c>
@@ -3722,7 +3159,7 @@
       </c>
       <c r="C177" s="6"/>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -3731,7 +3168,7 @@
       </c>
       <c r="C178" s="6"/>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="7">
         <v>178</v>
       </c>
@@ -3740,7 +3177,7 @@
       </c>
       <c r="C179" s="6"/>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -3749,7 +3186,7 @@
       </c>
       <c r="C180" s="6"/>
     </row>
-    <row r="181" spans="1:3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="7">
         <v>180</v>
       </c>
@@ -3758,7 +3195,7 @@
       </c>
       <c r="C181" s="6"/>
     </row>
-    <row r="182" spans="1:2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="7">
         <v>181</v>
       </c>
@@ -3766,7 +3203,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="7">
         <v>182</v>
       </c>
@@ -3774,7 +3211,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="184" spans="1:2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="7">
         <v>183</v>
       </c>
@@ -3782,7 +3219,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="185" spans="1:2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="7">
         <v>184</v>
       </c>
@@ -3790,7 +3227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="186" spans="1:2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -3798,7 +3235,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="187" spans="1:2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="7">
         <v>186</v>
       </c>
@@ -3807,9 +3244,9 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>